--- a/data/data analysis/ParetoFronts.xlsx
+++ b/data/data analysis/ParetoFronts.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\pythonProject2\CLCO\data\data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4DD82F-4304-4934-80CC-0B124866E0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81DAC1-DB7B-49B2-8778-E86AECC62401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-98" windowWidth="27983" windowHeight="16395" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
+    <workbookView xWindow="58410" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensitivity Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>Largest Facility</t>
   </si>
@@ -76,15 +80,98 @@
   <si>
     <t>GWP Pareto Front</t>
   </si>
+  <si>
+    <t>NPV MAX</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Tradeoff</t>
+  </si>
+  <si>
+    <t>GWP Min</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Time Horizon</t>
+  </si>
+  <si>
+    <t>N content</t>
+  </si>
+  <si>
+    <t>P Content</t>
+  </si>
+  <si>
+    <t>K Content</t>
+  </si>
+  <si>
+    <t>Energy Content</t>
+  </si>
+  <si>
+    <t>OPEX Ratio</t>
+  </si>
+  <si>
+    <t>Factor Levels</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Fertilizer Price</t>
+  </si>
+  <si>
+    <t>CAPEX Ratio</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>NPV Max Worst</t>
+  </si>
+  <si>
+    <t>NPV Max Best</t>
+  </si>
+  <si>
+    <t>Tradeoff Worst</t>
+  </si>
+  <si>
+    <t>Tradeoff Best</t>
+  </si>
+  <si>
+    <t>GWP Min Worst</t>
+  </si>
+  <si>
+    <t>GWP Min Best</t>
+  </si>
+  <si>
+    <t>OPEX</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,15 +197,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -5898,6 +5991,4067 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NPV Max</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19848447069116359"/>
+          <c:y val="0.11615740740740743"/>
+          <c:w val="0.73353630796150482"/>
+          <c:h val="0.71588692038495183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPV Max Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$B$15:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.21788986687224784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66164951931162064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.18560155365959388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14030903444270895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.10666508340218642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2898223327317366E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16858470310171303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0814391787612216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DD8-41B8-B6F0-D42B13BF9C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPV Max Best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.17137072087995422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0466686960629952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18560155365959372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14030903444270859</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10666508340218622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2898223327317366E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1685847031017132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0814391787612216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8DD8-41B8-B6F0-D42B13BF9C6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="42"/>
+        <c:overlap val="100"/>
+        <c:axId val="1191960224"/>
+        <c:axId val="1191960704"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$C$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Level</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$15:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$C$15:$C$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8DD8-41B8-B6F0-D42B13BF9C6D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1191960224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191960704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1191960704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage change</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> from base case</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191960224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66704177602799652"/>
+          <c:y val="0.24131889763779527"/>
+          <c:w val="0.26098510719867879"/>
+          <c:h val="0.25405147273257511"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tradeoff</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19848447069116359"/>
+          <c:y val="0.11615740740740743"/>
+          <c:w val="0.73353630796150482"/>
+          <c:h val="0.71588692038495183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tradeoff Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$G$15:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-5.5194107141571837E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.15617178387881048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.3543126864866859E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4412768162695449E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.3691758445766579E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.21524467764354416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.31835676245591632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.48461940155383093</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11019616429237628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1D2-414B-B69F-C451ABFE6C06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tradeoff Best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$I$15:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.3732964613130844E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25354244415560828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3675808477251456E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4411505167712831E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3689268715416831E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2133263859157257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31839429425772314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48476070374877883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30444099724696749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D1D2-414B-B69F-C451ABFE6C06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="42"/>
+        <c:overlap val="100"/>
+        <c:axId val="1191960224"/>
+        <c:axId val="1191960704"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$H$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Level</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$15:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$H$15:$H$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D1D2-414B-B69F-C451ABFE6C06}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1191960224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191960704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1191960704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage change</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> from base case</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191960224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.52747230649620902"/>
+          <c:y val="0.24131889763779527"/>
+          <c:w val="0.27770805932109272"/>
+          <c:h val="0.21238480606590843"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GWP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Min</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19848447069116359"/>
+          <c:y val="0.11615740740740743"/>
+          <c:w val="0.73353630796150482"/>
+          <c:h val="0.71588692038495183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GWP Min Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$L$15:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-2.1317282343354785E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.88468149936167E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.747766106689693E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.5787287740996774E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1388310242471478E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.14769570165570817</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25791703951409523</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.38941506422232353</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.1096935732044583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8876-4537-8A32-61C7B81FD548}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GWP Min Best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$15:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$N$15:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6959696210306564E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7331130103433319E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7561603086182611E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5760937843188311E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1385710630590683E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1460138588823584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25794067380249136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38950757171614947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19131475306324572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8876-4537-8A32-61C7B81FD548}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="42"/>
+        <c:overlap val="100"/>
+        <c:axId val="1191960224"/>
+        <c:axId val="1191960704"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$M$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Level</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$15:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$M$15:$M$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0%</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8876-4537-8A32-61C7B81FD548}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1191960224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191960704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1191960704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage change</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> from base case</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191960224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.56539764368019019"/>
+          <c:y val="0.24131889763779527"/>
+          <c:w val="0.23978296434918733"/>
+          <c:h val="0.26331073199183436"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13612768830306116"/>
+          <c:y val="5.0515091863517061E-2"/>
+          <c:w val="0.79589309245560247"/>
+          <c:h val="0.83833788188637426"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPV Max Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$B$44:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>-0.21788986687224784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.66164951931162064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.18560155365959388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.14030903444270895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.10666508340218642</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.2898223327317366E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.16858470310171303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.0814391787612216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B144-4B9C-B4AF-7E5182797C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPV Max Best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$D$44:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.17137072087995422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0466686960629952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18560155365959372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14030903444270859</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10666508340218622</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2898223327317366E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1685847031017132</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0814391787612216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B144-4B9C-B4AF-7E5182797C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$G$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tradeoff Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$G$44:$G$78</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="1">
+                  <c:v>-5.5194107141571837E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.15617178387881048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.3543126864866859E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.4412768162695449E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3691758445766579E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.21524467764354416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.31835676245591632</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.48461940155383093</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.11019616429237628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B144-4B9C-B4AF-7E5182797C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tradeoff Best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$I$44:$I$78</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="1">
+                  <c:v>4.3732964613130844E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25354244415560828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3675808477251456E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4411505167712831E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3689268715416831E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2133263859157257</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31839429425772314</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.48476070374877883</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.30444099724696749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B144-4B9C-B4AF-7E5182797C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GWP Min Worst</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$L$44:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="2">
+                  <c:v>-2.1317282343354785E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.88468149936167E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.747766106689693E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.5787287740996774E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.1388310242471478E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.14769570165570817</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.25791703951409523</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.38941506422232353</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-6.1096935732044583E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-B144-4B9C-B4AF-7E5182797C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$N$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GWP Min Best</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Time Horizon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>N content</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>P Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>K Content</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>OPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>CAPEX Ratio</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sensitivity Analysis'!$N$44:$N$78</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="2">
+                  <c:v>1.6959696210306564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7331130103433319E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7561603086182611E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5760937843188311E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1385710630590683E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1460138588823584</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25794067380249136</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38950757171614947</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19131475306324572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-B144-4B9C-B4AF-7E5182797C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="100"/>
+        <c:axId val="1191960224"/>
+        <c:axId val="1191960704"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$C$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Level</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$C$44:$C$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="35"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$E$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Range</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$E$44:$E$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="35"/>
+                      <c:pt idx="0">
+                        <c:v>-7970704.7123196013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-34980423.083818436</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-7600950.2370176427</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-5746083.3035860583</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-4368260.7983677648</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-93775.215021245182</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-6904058.2566927187</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-44288235.847428642</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$F$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$F$44:$F$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="35"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$H$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Level</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$H$44:$H$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="35"/>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$J$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Range</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$J$44:$J$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="35"/>
+                      <c:pt idx="1">
+                        <c:v>-4172607.0472564772</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-17281179.407560855</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-6209491.0543929785</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-1215767.9783419967</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-2842038.5218848735</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-18076534.646570139</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-26857278.79603431</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-40887111.961480014</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>-17488821.93322622</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$K$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$K$44:$K$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="35"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$M$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Level</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$M$44:$M$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="35"/>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$O$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Range</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="33"/>
+                      <c:pt idx="0">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Time Horizon</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>N content</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>P Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>K Content</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>OPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>CAPEX Ratio</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Sensitivity Analysis'!$O$44:$O$78</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="35"/>
+                      <c:pt idx="2">
+                        <c:v>-2471687.2273246571</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-10084992.250498973</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-6137039.6561520398</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-978603.39988699555</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-2762078.0178625956</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-18965921.469149932</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-33310856.010591492</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-50297938.945837177</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-16299163.904698752</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-B144-4B9C-B4AF-7E5182797C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1191960224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191960704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1191960704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage change</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> from base case</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191960224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13744226263326437"/>
+          <c:y val="0.51523282872987497"/>
+          <c:w val="0.29796459761649463"/>
+          <c:h val="0.13520885278580891"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6098,6 +10252,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8659,6 +12973,2026 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8867,6 +15201,185 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB47B00D-F8B8-C8EB-7123-2264208CB0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A64B72-DB4D-4E6A-A5B7-B33A0923A4B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5952D17D-C496-4C2F-B8B4-FCAB3B8EAF82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6657EE-5D6F-4154-8A29-915D69C72AF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="TEA Analysis"/>
+      <sheetName val="TEA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="O4">
+            <v>42620644.351284847</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9740,7 +16253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD00950-4BF6-4D77-BC4E-6C984B69E4D2}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AG66" sqref="AG66"/>
     </sheetView>
   </sheetViews>
@@ -11657,4 +18170,2213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9587F2EF-0B7E-4E84-89A1-B52C1FE909CB}">
+  <dimension ref="A1:S80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>16014898.810261119</v>
+      </c>
+      <c r="C3">
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D3">
+        <v>23985603.52258072</v>
+      </c>
+      <c r="E3">
+        <f>B3-D3</f>
+        <v>-7970704.7123196013</v>
+      </c>
+      <c r="G3">
+        <v>-44506627.85814368</v>
+      </c>
+      <c r="H3">
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I3">
+        <v>-40334020.810887203</v>
+      </c>
+      <c r="J3">
+        <f>G3-I3</f>
+        <v>-4172607.0472564772</v>
+      </c>
+      <c r="L3">
+        <v>-65950265.073169775</v>
+      </c>
+      <c r="M3">
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N3">
+        <v>-63478577.845845118</v>
+      </c>
+      <c r="O3">
+        <f>L3-N3</f>
+        <v>-2471687.2273246571</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>6928242.5595967919</v>
+      </c>
+      <c r="C4">
+        <f>C3</f>
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D4">
+        <v>41908665.643415228</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="0">B4-D4</f>
+        <v>-34980423.083818436</v>
+      </c>
+      <c r="G4">
+        <v>-48765726.587095588</v>
+      </c>
+      <c r="H4">
+        <f>H3</f>
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I4">
+        <v>-31484547.179534733</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J11" si="1">G4-I4</f>
+        <v>-17281179.407560855</v>
+      </c>
+      <c r="L4">
+        <v>-68373686.931534901</v>
+      </c>
+      <c r="M4">
+        <f>M3</f>
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N4">
+        <v>-58288694.681035928</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O11" si="2">L4-N4</f>
+        <v>-10084992.250498973</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>16676051.309061702</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C10" si="3">C4</f>
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D5">
+        <v>24277001.546079345</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-7600950.2370176427</v>
+      </c>
+      <c r="G5">
+        <v>-45280564.129071757</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="4">H4</f>
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I5">
+        <v>-39071073.074678779</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-6209491.0543929785</v>
+      </c>
+      <c r="L5">
+        <v>-67639538.27069518</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M10" si="5">M4</f>
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N5">
+        <v>-61502498.61454314</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>-6137039.6561520398</v>
+      </c>
+      <c r="Q5">
+        <v>0.8</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>17603484.775777493</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D6">
+        <v>23349568.079363551</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-5746083.3035860583</v>
+      </c>
+      <c r="G6">
+        <v>-42786527.390177228</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I6">
+        <v>-41570759.411835231</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-1215767.9783419967</v>
+      </c>
+      <c r="L6">
+        <v>-65063115.442708798</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N6">
+        <v>-64084512.042821802</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>-978603.39988699555</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>18292396.028386641</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D7">
+        <v>22660656.826754406</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-4368260.7983677648</v>
+      </c>
+      <c r="G7">
+        <v>-43599688.532949127</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I7">
+        <v>-40757650.011064254</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>-2842038.5218848735</v>
+      </c>
+      <c r="L7">
+        <v>-65954851.609455138</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N7">
+        <v>-63192773.591592543</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>-2762078.0178625956</v>
+      </c>
+      <c r="Q7">
+        <v>0.8</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>20476526.427570526</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D8">
+        <v>20476526.427570526</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-51257339.534416489</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I8">
+        <v>-33180804.887846351</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-18076534.646570139</v>
+      </c>
+      <c r="L8">
+        <v>-74110990.831236288</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N8">
+        <v>-55145069.362086356</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>-18965921.469149932</v>
+      </c>
+      <c r="Q8">
+        <v>0.8</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>20429638.820059903</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D9">
+        <v>20523414.035081148</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-93775.215021245182</v>
+      </c>
+      <c r="G9">
+        <v>-55606464.643590249</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I9">
+        <v>-28749185.847555939</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-26857278.79603431</v>
+      </c>
+      <c r="L9">
+        <v>-81228393.595440403</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N9">
+        <v>-47917537.584848911</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>-33310856.010591492</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>17024497.299224168</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D10">
+        <v>23928555.555916887</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-6904058.2566927187</v>
+      </c>
+      <c r="G10">
+        <v>-62619192.780491158</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I10">
+        <v>-21732080.819011144</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-40887111.961480014</v>
+      </c>
+      <c r="L10">
+        <v>-89719711.363223314</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N10">
+        <v>-39421772.417386137</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>-50297938.945837177</v>
+      </c>
+      <c r="Q10">
+        <v>1.2</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>-1667591.4961437958</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11" si="6">C9</f>
+        <v>20476526.427570526</v>
+      </c>
+      <c r="D11">
+        <v>42620644.351284847</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-44288235.847428642</v>
+      </c>
+      <c r="G11">
+        <v>-46826538.548011445</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11" si="7">H9</f>
+        <v>-42178616.765315555</v>
+      </c>
+      <c r="I11">
+        <v>-29337716.614785224</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-17488821.93322622</v>
+      </c>
+      <c r="L11">
+        <v>-68518985.6175666</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11" si="8">M9</f>
+        <v>-64573728.667207725</v>
+      </c>
+      <c r="N11">
+        <v>-52219821.712867849</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>-16299163.904698752</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <f>(B3-C3)/C3</f>
+        <v>-0.21788986687224784</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f>(D3-C3)/C3</f>
+        <v>0.17137072087995422</v>
+      </c>
+      <c r="E15" s="5">
+        <f>E3</f>
+        <v>-7970704.7123196013</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <f>-(G3-H3)/H3</f>
+        <v>-5.5194107141571837E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f>-(I3-H3)/H3</f>
+        <v>4.3732964613130844E-2</v>
+      </c>
+      <c r="J15" s="5">
+        <f>J3</f>
+        <v>-4172607.0472564772</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <f>-(L3-M3)/M3</f>
+        <v>-2.1317282343354785E-2</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f>-(N3-M3)/M3</f>
+        <v>1.6959696210306564E-2</v>
+      </c>
+      <c r="O15" s="5">
+        <f>O3</f>
+        <v>-2471687.2273246571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <f>(B4-C4)/C4</f>
+        <v>-0.66164951931162064</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f>(D4-C4)/C4</f>
+        <v>1.0466686960629952</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:E23" si="9">E4</f>
+        <v>-34980423.083818436</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <f>-(G4-H4)/H4</f>
+        <v>-0.15617178387881048</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>-(I4-H4)/H4</f>
+        <v>0.25354244415560828</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16:J23" si="10">J4</f>
+        <v>-17281179.407560855</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <f>-(L4-M4)/M4</f>
+        <v>-5.88468149936167E-2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>-(N4-M4)/M4</f>
+        <v>9.7331130103433319E-2</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" ref="O16:O23" si="11">O4</f>
+        <v>-10084992.250498973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <f>(B5-C5)/C5</f>
+        <v>-0.18560155365959388</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f>(D5-C5)/C5</f>
+        <v>0.18560155365959372</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="9"/>
+        <v>-7600950.2370176427</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <f>-(G5-H5)/H5</f>
+        <v>-7.3543126864866859E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>-(I5-H5)/H5</f>
+        <v>7.3675808477251456E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="10"/>
+        <v>-6209491.0543929785</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <f>-(L5-M5)/M5</f>
+        <v>-4.747766106689693E-2</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>-(N5-M5)/M5</f>
+        <v>4.7561603086182611E-2</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="11"/>
+        <v>-6137039.6561520398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
+        <f>(B6-C6)/C6</f>
+        <v>-0.14030903444270895</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <f>(D6-C6)/C6</f>
+        <v>0.14030903444270859</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="9"/>
+        <v>-5746083.3035860583</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <f>-(G6-H6)/H6</f>
+        <v>-1.4412768162695449E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f>-(I6-H6)/H6</f>
+        <v>1.4411505167712831E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="10"/>
+        <v>-1215767.9783419967</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <f>-(L6-M6)/M6</f>
+        <v>-7.5787287740996774E-3</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <f>-(N6-M6)/M6</f>
+        <v>7.5760937843188311E-3</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="11"/>
+        <v>-978603.39988699555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <f>(B7-C7)/C7</f>
+        <v>-0.10666508340218642</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f>(D7-C7)/C7</f>
+        <v>0.10666508340218622</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="9"/>
+        <v>-4368260.7983677648</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <f>-(G7-H7)/H7</f>
+        <v>-3.3691758445766579E-2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f>-(I7-H7)/H7</f>
+        <v>3.3689268715416831E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="10"/>
+        <v>-2842038.5218848735</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
+        <f>-(L7-M7)/M7</f>
+        <v>-2.1388310242471478E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <f>-(N7-M7)/M7</f>
+        <v>2.1385710630590683E-2</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="11"/>
+        <v>-2762078.0178625956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
+        <f>(B8-C8)/C8</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <f>(D8-C8)/C8</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <f>-(G8-H8)/H8</f>
+        <v>-0.21524467764354416</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f>-(I8-H8)/H8</f>
+        <v>0.2133263859157257</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="10"/>
+        <v>-18076534.646570139</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4">
+        <f>-(L8-M8)/M8</f>
+        <v>-0.14769570165570817</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <f>-(N8-M8)/M8</f>
+        <v>0.1460138588823584</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="11"/>
+        <v>-18965921.469149932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <f>(B9-C9)/C9</f>
+        <v>-2.2898223327317366E-3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f>(D9-C9)/C9</f>
+        <v>2.2898223327317366E-3</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="9"/>
+        <v>-93775.215021245182</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <f>-(G9-H9)/H9</f>
+        <v>-0.31835676245591632</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>-(I9-H9)/H9</f>
+        <v>0.31839429425772314</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="10"/>
+        <v>-26857278.79603431</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <f>-(L9-M9)/M9</f>
+        <v>-0.25791703951409523</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f>-(N9-M9)/M9</f>
+        <v>0.25794067380249136</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="11"/>
+        <v>-33310856.010591492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <f>(B10-C10)/C10</f>
+        <v>-0.16858470310171303</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f>(D10-C10)/C10</f>
+        <v>0.1685847031017132</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="9"/>
+        <v>-6904058.2566927187</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <f>-(G10-H10)/H10</f>
+        <v>-0.48461940155383093</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f>-(I10-H10)/H10</f>
+        <v>0.48476070374877883</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="10"/>
+        <v>-40887111.961480014</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
+        <f>-(L10-M10)/M10</f>
+        <v>-0.38941506422232353</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <f>-(N10-M10)/M10</f>
+        <v>0.38950757171614947</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="11"/>
+        <v>-50297938.945837177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" ref="B23" si="12">(B11-C11)/C11</f>
+        <v>-1.0814391787612216</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23" si="13">(D11-C11)/C11</f>
+        <v>1.0814391787612216</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="9"/>
+        <v>-44288235.847428642</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <f t="shared" ref="G23" si="14">-(G11-H11)/H11</f>
+        <v>-0.11019616429237628</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" ref="I23" si="15">-(I11-H11)/H11</f>
+        <v>0.30444099724696749</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="10"/>
+        <v>-17488821.93322622</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <f t="shared" ref="L23" si="16">-(L11-M11)/M11</f>
+        <v>-6.1096935732044583E-2</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" ref="N23" si="17">-(N11-M11)/M11</f>
+        <v>0.19131475306324572</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="11"/>
+        <v>-16299163.904698752</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <f>A14</f>
+        <v>0</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:O43" si="18">B14</f>
+        <v>NPV Max Worst</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="18"/>
+        <v>Level</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="18"/>
+        <v>NPV Max Best</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="18"/>
+        <v>Range</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="18"/>
+        <v>Tradeoff Worst</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="18"/>
+        <v>Level</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="18"/>
+        <v>Tradeoff Best</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="18"/>
+        <v>Range</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="18"/>
+        <v>GWP Min Worst</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="18"/>
+        <v>Level</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="18"/>
+        <v>GWP Min Best</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="18"/>
+        <v>Range</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B44" s="3">
+        <f t="shared" ref="B44:O44" si="19">B15</f>
+        <v>-0.21788986687224784</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="19"/>
+        <v>0.17137072087995422</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="19"/>
+        <v>-7970704.7123196013</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="str">
+        <f>A15</f>
+        <v>Interest Rate</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3">
+        <f t="shared" ref="A45:O45" si="20">F16</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f>G15</f>
+        <v>-5.5194107141571837E-2</v>
+      </c>
+      <c r="H45" s="3">
+        <f>H15</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <f>I15</f>
+        <v>4.3732964613130844E-2</v>
+      </c>
+      <c r="J45" s="3">
+        <f>J15</f>
+        <v>-4172607.0472564772</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3">
+        <f t="shared" ref="A46:O46" si="21">F17</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <f>L15</f>
+        <v>-2.1317282343354785E-2</v>
+      </c>
+      <c r="M46" s="3">
+        <f>M15</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <f>N15</f>
+        <v>1.6959696210306564E-2</v>
+      </c>
+      <c r="O46" s="3">
+        <f>O15</f>
+        <v>-2471687.2273246571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3">
+        <f t="shared" ref="A47:O47" si="22">F18</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
+        <f>B16</f>
+        <v>-0.66164951931162064</v>
+      </c>
+      <c r="C48" s="3">
+        <f>C16</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <f>D16</f>
+        <v>1.0466686960629952</v>
+      </c>
+      <c r="E48" s="3">
+        <f>E16</f>
+        <v>-34980423.083818436</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" ref="A48:O48" si="23">F19</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="str">
+        <f>A16</f>
+        <v>Time Horizon</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3">
+        <f t="shared" ref="A49:O49" si="24">F20</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <f>G16</f>
+        <v>-0.15617178387881048</v>
+      </c>
+      <c r="H49" s="3">
+        <f>H16</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <f>I16</f>
+        <v>0.25354244415560828</v>
+      </c>
+      <c r="J49" s="3">
+        <f>J16</f>
+        <v>-17281179.407560855</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3">
+        <f t="shared" ref="A50:O50" si="25">F21</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <f>L16</f>
+        <v>-5.88468149936167E-2</v>
+      </c>
+      <c r="M50" s="3">
+        <f>M16</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <f>N16</f>
+        <v>9.7331130103433319E-2</v>
+      </c>
+      <c r="O50" s="3">
+        <f>O16</f>
+        <v>-10084992.250498973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3">
+        <f t="shared" ref="A51:O51" si="26">F22</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <f>B17</f>
+        <v>-0.18560155365959388</v>
+      </c>
+      <c r="C52" s="3">
+        <f>C17</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <f>D17</f>
+        <v>0.18560155365959372</v>
+      </c>
+      <c r="E52" s="3">
+        <f>E17</f>
+        <v>-7600950.2370176427</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" ref="A52:O52" si="27">F23</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="str">
+        <f>A17</f>
+        <v>N content</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <f>G17</f>
+        <v>-7.3543126864866859E-2</v>
+      </c>
+      <c r="H53" s="3">
+        <f>H17</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <f>I17</f>
+        <v>7.3675808477251456E-2</v>
+      </c>
+      <c r="J53" s="3">
+        <f>J17</f>
+        <v>-6209491.0543929785</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
+        <f>L17</f>
+        <v>-4.747766106689693E-2</v>
+      </c>
+      <c r="M54" s="3">
+        <f>M17</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <f>N17</f>
+        <v>4.7561603086182611E-2</v>
+      </c>
+      <c r="O54" s="3">
+        <f>O17</f>
+        <v>-6137039.6561520398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3">
+        <f>B18</f>
+        <v>-0.14030903444270895</v>
+      </c>
+      <c r="C56" s="3">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <f>D18</f>
+        <v>0.14030903444270859</v>
+      </c>
+      <c r="E56" s="3">
+        <f>E18</f>
+        <v>-5746083.3035860583</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="str">
+        <f>A18</f>
+        <v>P Content</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <f>G18</f>
+        <v>-1.4412768162695449E-2</v>
+      </c>
+      <c r="H57" s="3">
+        <f>H18</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <f>I18</f>
+        <v>1.4411505167712831E-2</v>
+      </c>
+      <c r="J57" s="3">
+        <f>J18</f>
+        <v>-1215767.9783419967</v>
+      </c>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3">
+        <f>L18</f>
+        <v>-7.5787287740996774E-3</v>
+      </c>
+      <c r="M58" s="3">
+        <f>M18</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <f>N18</f>
+        <v>7.5760937843188311E-3</v>
+      </c>
+      <c r="O58" s="3">
+        <f>O18</f>
+        <v>-978603.39988699555</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3">
+        <f>B19</f>
+        <v>-0.10666508340218642</v>
+      </c>
+      <c r="C60" s="3">
+        <f>C19</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <f>D19</f>
+        <v>0.10666508340218622</v>
+      </c>
+      <c r="E60" s="3">
+        <f>E19</f>
+        <v>-4368260.7983677648</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="str">
+        <f>A19</f>
+        <v>K Content</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <f>G19</f>
+        <v>-3.3691758445766579E-2</v>
+      </c>
+      <c r="H61" s="3">
+        <f>H19</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <f>I19</f>
+        <v>3.3689268715416831E-2</v>
+      </c>
+      <c r="J61" s="3">
+        <f>J19</f>
+        <v>-2842038.5218848735</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3">
+        <f>L19</f>
+        <v>-2.1388310242471478E-2</v>
+      </c>
+      <c r="M62" s="3">
+        <f>M19</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <f>N19</f>
+        <v>2.1385710630590683E-2</v>
+      </c>
+      <c r="O62" s="3">
+        <f>O19</f>
+        <v>-2762078.0178625956</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3">
+        <f>B20</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <f>C20</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="str">
+        <f>A20</f>
+        <v>Energy Content</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
+        <f>G20</f>
+        <v>-0.21524467764354416</v>
+      </c>
+      <c r="H65" s="3">
+        <f>H20</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <f>I20</f>
+        <v>0.2133263859157257</v>
+      </c>
+      <c r="J65" s="3">
+        <f>J20</f>
+        <v>-18076534.646570139</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3">
+        <f>L20</f>
+        <v>-0.14769570165570817</v>
+      </c>
+      <c r="M66" s="3">
+        <f>M20</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <f>N20</f>
+        <v>0.1460138588823584</v>
+      </c>
+      <c r="O66" s="3">
+        <f>O20</f>
+        <v>-18965921.469149932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3">
+        <f>B21</f>
+        <v>-2.2898223327317366E-3</v>
+      </c>
+      <c r="C68" s="3">
+        <f>C21</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <f>D21</f>
+        <v>2.2898223327317366E-3</v>
+      </c>
+      <c r="E68" s="3">
+        <f>E21</f>
+        <v>-93775.215021245182</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="str">
+        <f>A21</f>
+        <v>OPEX Ratio</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
+        <f>G21</f>
+        <v>-0.31835676245591632</v>
+      </c>
+      <c r="H69" s="3">
+        <f>H21</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <f>I21</f>
+        <v>0.31839429425772314</v>
+      </c>
+      <c r="J69" s="3">
+        <f>J21</f>
+        <v>-26857278.79603431</v>
+      </c>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3">
+        <f>L21</f>
+        <v>-0.25791703951409523</v>
+      </c>
+      <c r="M70" s="3">
+        <f>M21</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <f>N21</f>
+        <v>0.25794067380249136</v>
+      </c>
+      <c r="O70" s="3">
+        <f>O21</f>
+        <v>-33310856.010591492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3">
+        <f>B22</f>
+        <v>-0.16858470310171303</v>
+      </c>
+      <c r="C72" s="3">
+        <f>C22</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <f>D22</f>
+        <v>0.1685847031017132</v>
+      </c>
+      <c r="E72" s="3">
+        <f>E22</f>
+        <v>-6904058.2566927187</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="str">
+        <f>A22</f>
+        <v>CAPEX Ratio</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3">
+        <f>G22</f>
+        <v>-0.48461940155383093</v>
+      </c>
+      <c r="H73" s="3">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <f>I22</f>
+        <v>0.48476070374877883</v>
+      </c>
+      <c r="J73" s="3">
+        <f>J22</f>
+        <v>-40887111.961480014</v>
+      </c>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3">
+        <f>L22</f>
+        <v>-0.38941506422232353</v>
+      </c>
+      <c r="M74" s="3">
+        <f>M22</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <f>N22</f>
+        <v>0.38950757171614947</v>
+      </c>
+      <c r="O74" s="3">
+        <f>O22</f>
+        <v>-50297938.945837177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3">
+        <f>B23</f>
+        <v>-1.0814391787612216</v>
+      </c>
+      <c r="C76" s="3">
+        <f>C23</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <f>D23</f>
+        <v>1.0814391787612216</v>
+      </c>
+      <c r="E76" s="3">
+        <f>E23</f>
+        <v>-44288235.847428642</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="str">
+        <f>A23</f>
+        <v>Fertilizer Price</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3">
+        <f>G23</f>
+        <v>-0.11019616429237628</v>
+      </c>
+      <c r="H77" s="3">
+        <f>H23</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <f>I23</f>
+        <v>0.30444099724696749</v>
+      </c>
+      <c r="J77" s="3">
+        <f>J23</f>
+        <v>-17488821.93322622</v>
+      </c>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3">
+        <f>L23</f>
+        <v>-6.1096935732044583E-2</v>
+      </c>
+      <c r="M78" s="3">
+        <f>M23</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <f>N23</f>
+        <v>0.19131475306324572</v>
+      </c>
+      <c r="O78" s="3">
+        <f>O23</f>
+        <v>-16299163.904698752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/data analysis/ParetoFronts.xlsx
+++ b/data/data analysis/ParetoFronts.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\pythonProject2\CLCO\data\data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81DAC1-DB7B-49B2-8778-E86AECC62401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB9ADD6-B153-4462-A541-3EFE4BDAB86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58410" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
+    <workbookView xWindow="952" yWindow="-98" windowWidth="27946" windowHeight="16395" activeTab="1" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sensitivity Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -8057,9 +8054,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13612768830306116"/>
-          <c:y val="5.0515091863517061E-2"/>
-          <c:w val="0.79589309245560247"/>
-          <c:h val="0.83833788188637426"/>
+          <c:y val="3.0464868084945144E-2"/>
+          <c:w val="0.82890547209796839"/>
+          <c:h val="0.85838800192396958"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -8095,7 +8092,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:f>'Sensitivity Analysis'!$A$44:$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
@@ -8199,7 +8196,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:f>'Sensitivity Analysis'!$A$44:$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
@@ -8300,7 +8297,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:f>'Sensitivity Analysis'!$A$44:$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
@@ -8401,7 +8398,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:f>'Sensitivity Analysis'!$A$44:$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
@@ -8504,7 +8501,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:f>'Sensitivity Analysis'!$A$44:$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
@@ -8607,7 +8604,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sensitivity Analysis'!$A$45:$A$78</c:f>
+              <c:f>'Sensitivity Analysis'!$A$44:$A$78</c:f>
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
@@ -8732,7 +8729,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8773,13 +8770,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="34"/>
+                      <c:ptCount val="35"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -8823,7 +8820,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$C$43</c15:sqref>
@@ -8852,10 +8849,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8893,7 +8890,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$C$44:$C$78</c15:sqref>
@@ -8933,7 +8930,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-B144-4B9C-B4AF-7E5182797C23}"/>
                   </c:ext>
@@ -8946,7 +8943,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$E$43</c15:sqref>
@@ -8973,10 +8970,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9014,7 +9011,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$E$44:$E$78</c15:sqref>
@@ -9054,7 +9051,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-B144-4B9C-B4AF-7E5182797C23}"/>
                   </c:ext>
@@ -9067,7 +9064,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$F$43</c15:sqref>
@@ -9094,10 +9091,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9135,7 +9132,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$F$44:$F$78</c15:sqref>
@@ -9175,7 +9172,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-B144-4B9C-B4AF-7E5182797C23}"/>
                   </c:ext>
@@ -9188,7 +9185,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$H$43</c15:sqref>
@@ -9217,10 +9214,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9258,7 +9255,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$H$44:$H$78</c15:sqref>
@@ -9298,7 +9295,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-B144-4B9C-B4AF-7E5182797C23}"/>
                   </c:ext>
@@ -9311,7 +9308,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$J$43</c15:sqref>
@@ -9340,10 +9337,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9381,7 +9378,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$J$44:$J$78</c15:sqref>
@@ -9421,7 +9418,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-B144-4B9C-B4AF-7E5182797C23}"/>
                   </c:ext>
@@ -9434,7 +9431,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$K$43</c15:sqref>
@@ -9463,10 +9460,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9504,7 +9501,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$K$44:$K$78</c15:sqref>
@@ -9544,7 +9541,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-B144-4B9C-B4AF-7E5182797C23}"/>
                   </c:ext>
@@ -9557,7 +9554,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$M$43</c15:sqref>
@@ -9587,10 +9584,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9628,7 +9625,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$M$44:$M$78</c15:sqref>
@@ -9668,7 +9665,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-B144-4B9C-B4AF-7E5182797C23}"/>
                   </c:ext>
@@ -9681,7 +9678,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$O$43</c15:sqref>
@@ -9711,10 +9708,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sensitivity Analysis'!$A$45:$A$78</c15:sqref>
+                          <c15:sqref>'Sensitivity Analysis'!$A$44:$A$78</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9752,7 +9749,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Sensitivity Analysis'!$O$44:$O$78</c15:sqref>
@@ -9792,7 +9789,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-B144-4B9C-B4AF-7E5182797C23}"/>
                   </c:ext>
@@ -9805,7 +9802,7 @@
       <c:catAx>
         <c:axId val="1191960224"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9828,7 +9825,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9854,9 +9851,11 @@
         <c:axId val="1191960704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="-1.1000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9902,6 +9901,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40680234090408574"/>
+              <c:y val="0.93233058174818106"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9934,7 +9941,7 @@
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -9947,7 +9954,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9965,6 +9972,7 @@
         <c:crossAx val="1191960224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.55000000000000004"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9980,8 +9988,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13744226263326437"/>
-          <c:y val="0.51523282872987497"/>
+          <c:x val="0.15761649463693242"/>
+          <c:y val="0.35483186842911257"/>
           <c:w val="0.29796459761649463"/>
           <c:h val="0.13520885278580891"/>
         </c:manualLayout>
@@ -9999,7 +10007,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -15356,30 +15364,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="TEA Analysis"/>
-      <sheetName val="TEA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="O4">
-            <v>42620644.351284847</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18176,8 +18160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9587F2EF-0B7E-4E84-89A1-B52C1FE909CB}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18806,14 +18790,14 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <f>(B3-C3)/C3</f>
+        <f t="shared" ref="B15:B22" si="9">(B3-C3)/C3</f>
         <v>-0.21788986687224784</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <f>(D3-C3)/C3</f>
+        <f t="shared" ref="D15:D22" si="10">(D3-C3)/C3</f>
         <v>0.17137072087995422</v>
       </c>
       <c r="E15" s="5">
@@ -18822,14 +18806,14 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <f>-(G3-H3)/H3</f>
+        <f t="shared" ref="G15:G22" si="11">-(G3-H3)/H3</f>
         <v>-5.5194107141571837E-2</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <f>-(I3-H3)/H3</f>
+        <f t="shared" ref="I15:I22" si="12">-(I3-H3)/H3</f>
         <v>4.3732964613130844E-2</v>
       </c>
       <c r="J15" s="5">
@@ -18838,14 +18822,14 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4">
-        <f>-(L3-M3)/M3</f>
+        <f t="shared" ref="L15:L22" si="13">-(L3-M3)/M3</f>
         <v>-2.1317282343354785E-2</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f>-(N3-M3)/M3</f>
+        <f t="shared" ref="N15:N22" si="14">-(N3-M3)/M3</f>
         <v>1.6959696210306564E-2</v>
       </c>
       <c r="O15" s="5">
@@ -18858,50 +18842,50 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <f>(B4-C4)/C4</f>
+        <f t="shared" si="9"/>
         <v>-0.66164951931162064</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <f>(D4-C4)/C4</f>
+        <f t="shared" si="10"/>
         <v>1.0466686960629952</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16:E23" si="9">E4</f>
+        <f t="shared" ref="E16:E23" si="15">E4</f>
         <v>-34980423.083818436</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <f>-(G4-H4)/H4</f>
+        <f t="shared" si="11"/>
         <v>-0.15617178387881048</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f>-(I4-H4)/H4</f>
+        <f t="shared" si="12"/>
         <v>0.25354244415560828</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16:J23" si="10">J4</f>
+        <f t="shared" ref="J16:J23" si="16">J4</f>
         <v>-17281179.407560855</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4">
-        <f>-(L4-M4)/M4</f>
+        <f t="shared" si="13"/>
         <v>-5.88468149936167E-2</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f>-(N4-M4)/M4</f>
+        <f t="shared" si="14"/>
         <v>9.7331130103433319E-2</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" ref="O16:O23" si="11">O4</f>
+        <f t="shared" ref="O16:O23" si="17">O4</f>
         <v>-10084992.250498973</v>
       </c>
     </row>
@@ -18910,50 +18894,50 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <f>(B5-C5)/C5</f>
+        <f t="shared" si="9"/>
         <v>-0.18560155365959388</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f>(D5-C5)/C5</f>
+        <f t="shared" si="10"/>
         <v>0.18560155365959372</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-7600950.2370176427</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <f>-(G5-H5)/H5</f>
+        <f t="shared" si="11"/>
         <v>-7.3543126864866859E-2</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f>-(I5-H5)/H5</f>
+        <f t="shared" si="12"/>
         <v>7.3675808477251456E-2</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-6209491.0543929785</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4">
-        <f>-(L5-M5)/M5</f>
+        <f t="shared" si="13"/>
         <v>-4.747766106689693E-2</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f>-(N5-M5)/M5</f>
+        <f t="shared" si="14"/>
         <v>4.7561603086182611E-2</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-6137039.6561520398</v>
       </c>
     </row>
@@ -18962,50 +18946,50 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <f>(B6-C6)/C6</f>
+        <f t="shared" si="9"/>
         <v>-0.14030903444270895</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <f>(D6-C6)/C6</f>
+        <f t="shared" si="10"/>
         <v>0.14030903444270859</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-5746083.3035860583</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <f>-(G6-H6)/H6</f>
+        <f t="shared" si="11"/>
         <v>-1.4412768162695449E-2</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f>-(I6-H6)/H6</f>
+        <f t="shared" si="12"/>
         <v>1.4411505167712831E-2</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-1215767.9783419967</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4">
-        <f>-(L6-M6)/M6</f>
+        <f t="shared" si="13"/>
         <v>-7.5787287740996774E-3</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f>-(N6-M6)/M6</f>
+        <f t="shared" si="14"/>
         <v>7.5760937843188311E-3</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-978603.39988699555</v>
       </c>
     </row>
@@ -19014,50 +18998,50 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <f>(B7-C7)/C7</f>
+        <f t="shared" si="9"/>
         <v>-0.10666508340218642</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f>(D7-C7)/C7</f>
+        <f t="shared" si="10"/>
         <v>0.10666508340218622</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-4368260.7983677648</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <f>-(G7-H7)/H7</f>
+        <f t="shared" si="11"/>
         <v>-3.3691758445766579E-2</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f>-(I7-H7)/H7</f>
+        <f t="shared" si="12"/>
         <v>3.3689268715416831E-2</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-2842038.5218848735</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4">
-        <f>-(L7-M7)/M7</f>
+        <f t="shared" si="13"/>
         <v>-2.1388310242471478E-2</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f>-(N7-M7)/M7</f>
+        <f t="shared" si="14"/>
         <v>2.1385710630590683E-2</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-2762078.0178625956</v>
       </c>
     </row>
@@ -19066,50 +19050,50 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <f>(B8-C8)/C8</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f>(D8-C8)/C8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <f>-(G8-H8)/H8</f>
+        <f t="shared" si="11"/>
         <v>-0.21524467764354416</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f>-(I8-H8)/H8</f>
+        <f t="shared" si="12"/>
         <v>0.2133263859157257</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-18076534.646570139</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4">
-        <f>-(L8-M8)/M8</f>
+        <f t="shared" si="13"/>
         <v>-0.14769570165570817</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f>-(N8-M8)/M8</f>
+        <f t="shared" si="14"/>
         <v>0.1460138588823584</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-18965921.469149932</v>
       </c>
     </row>
@@ -19118,50 +19102,50 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <f>(B9-C9)/C9</f>
+        <f t="shared" si="9"/>
         <v>-2.2898223327317366E-3</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f>(D9-C9)/C9</f>
+        <f t="shared" si="10"/>
         <v>2.2898223327317366E-3</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-93775.215021245182</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <f>-(G9-H9)/H9</f>
+        <f t="shared" si="11"/>
         <v>-0.31835676245591632</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f>-(I9-H9)/H9</f>
+        <f t="shared" si="12"/>
         <v>0.31839429425772314</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-26857278.79603431</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4">
-        <f>-(L9-M9)/M9</f>
+        <f t="shared" si="13"/>
         <v>-0.25791703951409523</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f>-(N9-M9)/M9</f>
+        <f t="shared" si="14"/>
         <v>0.25794067380249136</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-33310856.010591492</v>
       </c>
     </row>
@@ -19170,50 +19154,50 @@
         <v>29</v>
       </c>
       <c r="B22" s="4">
-        <f>(B10-C10)/C10</f>
+        <f t="shared" si="9"/>
         <v>-0.16858470310171303</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f>(D10-C10)/C10</f>
+        <f t="shared" si="10"/>
         <v>0.1685847031017132</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-6904058.2566927187</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <f>-(G10-H10)/H10</f>
+        <f t="shared" si="11"/>
         <v>-0.48461940155383093</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f>-(I10-H10)/H10</f>
+        <f t="shared" si="12"/>
         <v>0.48476070374877883</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-40887111.961480014</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4">
-        <f>-(L10-M10)/M10</f>
+        <f t="shared" si="13"/>
         <v>-0.38941506422232353</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f>-(N10-M10)/M10</f>
+        <f t="shared" si="14"/>
         <v>0.38950757171614947</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-50297938.945837177</v>
       </c>
     </row>
@@ -19222,50 +19206,50 @@
         <v>28</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23" si="12">(B11-C11)/C11</f>
+        <f t="shared" ref="B23" si="18">(B11-C11)/C11</f>
         <v>-1.0814391787612216</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23" si="13">(D11-C11)/C11</f>
+        <f t="shared" ref="D23" si="19">(D11-C11)/C11</f>
         <v>1.0814391787612216</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-44288235.847428642</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <f t="shared" ref="G23" si="14">-(G11-H11)/H11</f>
+        <f t="shared" ref="G23" si="20">-(G11-H11)/H11</f>
         <v>-0.11019616429237628</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23" si="15">-(I11-H11)/H11</f>
+        <f t="shared" ref="I23" si="21">-(I11-H11)/H11</f>
         <v>0.30444099724696749</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-17488821.93322622</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4">
-        <f t="shared" ref="L23" si="16">-(L11-M11)/M11</f>
+        <f t="shared" ref="L23" si="22">-(L11-M11)/M11</f>
         <v>-6.1096935732044583E-2</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="17">-(N11-M11)/M11</f>
+        <f t="shared" ref="N23" si="23">-(N11-M11)/M11</f>
         <v>0.19131475306324572</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-16299163.904698752</v>
       </c>
     </row>
@@ -19286,81 +19270,85 @@
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" ref="B43:O43" si="18">B14</f>
+        <f t="shared" ref="B43:O43" si="24">B14</f>
         <v>NPV Max Worst</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Level</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>NPV Max Best</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Range</v>
       </c>
       <c r="F43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Tradeoff Worst</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Level</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Tradeoff Best</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Range</v>
       </c>
       <c r="K43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>GWP Min Worst</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Level</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>GWP Min Best</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>Range</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="str">
+        <f>A15</f>
+        <v>Interest Rate</v>
+      </c>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:O44" si="19">B15</f>
+        <f t="shared" ref="B44:K44" si="25">B15</f>
         <v>-0.21788986687224784</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.17137072087995422</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-7970704.7123196013</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G44" s="3"/>
@@ -19368,7 +19356,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L44" s="3"/>
@@ -19377,16 +19365,13 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A45" s="3" t="str">
-        <f>A15</f>
-        <v>Interest Rate</v>
-      </c>
+      <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3">
-        <f t="shared" ref="A45:O45" si="20">F16</f>
+        <f t="shared" ref="F45:K45" si="26">F16</f>
         <v>0</v>
       </c>
       <c r="G45" s="3">
@@ -19406,7 +19391,7 @@
         <v>-4172607.0472564772</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L45" s="3"/>
@@ -19421,7 +19406,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3">
-        <f t="shared" ref="A46:O46" si="21">F17</f>
+        <f t="shared" ref="F46:K46" si="27">F17</f>
         <v>0</v>
       </c>
       <c r="G46" s="3"/>
@@ -19429,7 +19414,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L46" s="3">
@@ -19456,7 +19441,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3">
-        <f t="shared" ref="A47:O47" si="22">F18</f>
+        <f t="shared" ref="F47:K47" si="28">F18</f>
         <v>0</v>
       </c>
       <c r="G47" s="3"/>
@@ -19464,7 +19449,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L47" s="3"/>
@@ -19473,7 +19458,10 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
+      <c r="A48" s="3" t="str">
+        <f>A16</f>
+        <v>Time Horizon</v>
+      </c>
       <c r="B48" s="3">
         <f>B16</f>
         <v>-0.66164951931162064</v>
@@ -19491,7 +19479,7 @@
         <v>-34980423.083818436</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" ref="A48:O48" si="23">F19</f>
+        <f t="shared" ref="F48:K48" si="29">F19</f>
         <v>0</v>
       </c>
       <c r="G48" s="3"/>
@@ -19499,7 +19487,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L48" s="3"/>
@@ -19508,16 +19496,13 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="str">
-        <f>A16</f>
-        <v>Time Horizon</v>
-      </c>
+      <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
-        <f t="shared" ref="A49:O49" si="24">F20</f>
+        <f t="shared" ref="F49:K49" si="30">F20</f>
         <v>0</v>
       </c>
       <c r="G49" s="3">
@@ -19537,7 +19522,7 @@
         <v>-17281179.407560855</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L49" s="3"/>
@@ -19552,7 +19537,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3">
-        <f t="shared" ref="A50:O50" si="25">F21</f>
+        <f t="shared" ref="F50:K50" si="31">F21</f>
         <v>0</v>
       </c>
       <c r="G50" s="3"/>
@@ -19560,7 +19545,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L50" s="3">
@@ -19587,7 +19572,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3">
-        <f t="shared" ref="A51:O51" si="26">F22</f>
+        <f t="shared" ref="F51:K51" si="32">F22</f>
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
@@ -19595,7 +19580,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L51" s="3"/>
@@ -19604,7 +19589,10 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3" t="str">
+        <f>A17</f>
+        <v>N content</v>
+      </c>
       <c r="B52" s="3">
         <f>B17</f>
         <v>-0.18560155365959388</v>
@@ -19622,7 +19610,7 @@
         <v>-7600950.2370176427</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="A52:O52" si="27">F23</f>
+        <f t="shared" ref="F52:K52" si="33">F23</f>
         <v>0</v>
       </c>
       <c r="G52" s="3"/>
@@ -19630,7 +19618,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L52" s="3"/>
@@ -19639,10 +19627,7 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="str">
-        <f>A17</f>
-        <v>N content</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -19717,7 +19702,10 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3" t="str">
+        <f>A18</f>
+        <v>P Content</v>
+      </c>
       <c r="B56" s="3">
         <f>B18</f>
         <v>-0.14030903444270895</v>
@@ -19746,10 +19734,7 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="str">
-        <f>A18</f>
-        <v>P Content</v>
-      </c>
+      <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -19824,7 +19809,10 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3" t="str">
+        <f>A19</f>
+        <v>K Content</v>
+      </c>
       <c r="B60" s="3">
         <f>B19</f>
         <v>-0.10666508340218642</v>
@@ -19853,10 +19841,7 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="str">
-        <f>A19</f>
-        <v>K Content</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -19931,7 +19916,10 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A64" s="3"/>
+      <c r="A64" s="3" t="str">
+        <f>A20</f>
+        <v>Energy Content</v>
+      </c>
       <c r="B64" s="3">
         <f>B20</f>
         <v>0</v>
@@ -19960,10 +19948,7 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="str">
-        <f>A20</f>
-        <v>Energy Content</v>
-      </c>
+      <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -20038,7 +20023,10 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3" t="str">
+        <f>A21</f>
+        <v>OPEX Ratio</v>
+      </c>
       <c r="B68" s="3">
         <f>B21</f>
         <v>-2.2898223327317366E-3</v>
@@ -20067,10 +20055,7 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="str">
-        <f>A21</f>
-        <v>OPEX Ratio</v>
-      </c>
+      <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -20145,7 +20130,10 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3" t="str">
+        <f>A22</f>
+        <v>CAPEX Ratio</v>
+      </c>
       <c r="B72" s="3">
         <f>B22</f>
         <v>-0.16858470310171303</v>
@@ -20174,10 +20162,7 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="str">
-        <f>A22</f>
-        <v>CAPEX Ratio</v>
-      </c>
+      <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -20252,7 +20237,10 @@
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A76" s="3"/>
+      <c r="A76" s="3" t="str">
+        <f>A23</f>
+        <v>Fertilizer Price</v>
+      </c>
       <c r="B76" s="3">
         <f>B23</f>
         <v>-1.0814391787612216</v>
@@ -20281,10 +20269,6 @@
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="str">
-        <f>A23</f>
-        <v>Fertilizer Price</v>
-      </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>

--- a/data/data analysis/ParetoFronts.xlsx
+++ b/data/data analysis/ParetoFronts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\pythonProject2\CLCO\data\data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB9ADD6-B153-4462-A541-3EFE4BDAB86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74450855-E83D-4768-B8C4-AE3EED3D1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="952" yWindow="-98" windowWidth="27946" windowHeight="16395" activeTab="1" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
+    <workbookView xWindow="58410" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
   <si>
     <t>Largest Facility</t>
   </si>
@@ -152,6 +152,150 @@
   <si>
     <t>CAPEX</t>
   </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bora, R.R., Lei, M., Tester, J.W., Lehmann, J. and You, F., 2020. Life cycle assessment and technoeconomic analysis of thermochemical conversion technologies applied to poultry litter with energy and nutrient recovery. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACS Sustainable Chemistry &amp; Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(22), pp.8436-8447.</t>
+    </r>
+  </si>
+  <si>
+    <t>KPMG Cost of Capital Study</t>
+  </si>
+  <si>
+    <t>Same factor as bora in the other direction</t>
+  </si>
+  <si>
+    <t>KPMG Cost of Capital Study, 11% risk premium</t>
+  </si>
+  <si>
+    <t>factor of lower bound in Amanullah, M.M., Somasundaram, E., Vaiyapuri, K. and Sathyamoorthi, K., 2007. Poultry manure to crops–A review. Agricultural Reviews, 28(3), pp.216-222.</t>
+  </si>
+  <si>
+    <t>factor of upper bound in Amanullah, M.M., Somasundaram, E., Vaiyapuri, K. and Sathyamoorthi, K., 2007. Poultry manure to crops–A review. Agricultural Reviews, 28(3), pp.216-222.</t>
+  </si>
+  <si>
+    <t>average in Amanullah, M.M., Somasundaram, E., Vaiyapuri, K. and Sathyamoorthi, K., 2007. Poultry manure to crops–A review. Agricultural Reviews, 28(3), pp.216-222.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 time largest sd at 1:5 at 30 minutes from Mau, V., Quance, J., Posmanik, R. and Gross, A., 2016. Phases’ characteristics of poultry litter hydrothermal carbonization under a range of process parameters. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bioresource technology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>219</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pp.632-642.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.nass.usda.gov/Charts_and_Maps/Agricultural_Prices/prod1.php</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Economic indicators. (2023). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chemical Engineering, 130</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(4), 64. Retrieved from https://www.proquest.com/trade-journals/economic-indicators/docview/2793119727/se-2 </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +305,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +314,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,13 +350,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18158,14 +18312,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9587F2EF-0B7E-4E84-89A1-B52C1FE909CB}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.1328125" bestFit="1" customWidth="1"/>
@@ -18174,7 +18329,7 @@
     <col min="15" max="15" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -18187,8 +18342,11 @@
       <c r="Q1" t="s">
         <v>25</v>
       </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -18234,8 +18392,17 @@
       <c r="S2" t="s">
         <v>27</v>
       </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -18279,7 +18446,7 @@
         <v>-2471687.2273246571</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="R3" s="2">
         <v>7.0000000000000007E-2</v>
@@ -18287,8 +18454,17 @@
       <c r="S3" s="2">
         <v>0.05</v>
       </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -18335,7 +18511,7 @@
         <v>-10084992.250498973</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>10</v>
@@ -18343,8 +18519,14 @@
       <c r="S4">
         <v>20</v>
       </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -18391,16 +18573,26 @@
         <v>-6137039.6561520398</v>
       </c>
       <c r="Q5">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>1.2</v>
+        <f>2-Q5</f>
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -18447,16 +18639,26 @@
         <v>-978603.39988699555</v>
       </c>
       <c r="Q6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
-        <v>1.2</v>
+        <f t="shared" ref="S6:S7" si="6">2-Q6</f>
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -18503,16 +18705,26 @@
         <v>-2762078.0178625956</v>
       </c>
       <c r="Q7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
       <c r="S7">
-        <v>1.2</v>
+        <f t="shared" si="6"/>
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -18559,16 +18771,23 @@
         <v>-18965921.469149932</v>
       </c>
       <c r="Q8">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="S8">
-        <v>1.2</v>
+        <f>2-Q8</f>
+        <v>1.08</v>
+      </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V8" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -18614,17 +18833,28 @@
         <f t="shared" si="2"/>
         <v>-33310856.010591492</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0.12</v>
+      <c r="Q9" s="6">
+        <f>R9*Q10</f>
+        <v>0.11424264705882352</v>
       </c>
       <c r="R9" s="2">
         <v>0.09</v>
       </c>
-      <c r="S9" s="2">
-        <v>0.06</v>
+      <c r="S9" s="6">
+        <f>R9*S10</f>
+        <v>6.5757352941176475E-2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -18670,17 +18900,28 @@
         <f t="shared" si="2"/>
         <v>-50297938.945837177</v>
       </c>
-      <c r="Q10">
-        <v>1.2</v>
+      <c r="Q10" s="7">
+        <f>2-S10</f>
+        <v>1.2693627450980391</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10">
-        <v>0.8</v>
+      <c r="S10" s="7">
+        <f>596.2/816</f>
+        <v>0.73063725490196085</v>
+      </c>
+      <c r="T10" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -18688,7 +18929,7 @@
         <v>-1667591.4961437958</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11" si="6">C9</f>
+        <f t="shared" ref="C11" si="7">C9</f>
         <v>20476526.427570526</v>
       </c>
       <c r="D11">
@@ -18702,7 +18943,7 @@
         <v>-46826538.548011445</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="7">H9</f>
+        <f t="shared" ref="H11" si="8">H9</f>
         <v>-42178616.765315555</v>
       </c>
       <c r="I11">
@@ -18716,7 +18957,7 @@
         <v>-68518985.6175666</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11" si="8">M9</f>
+        <f t="shared" ref="M11" si="9">M9</f>
         <v>-64573728.667207725</v>
       </c>
       <c r="N11">
@@ -18726,17 +18967,22 @@
         <f t="shared" si="2"/>
         <v>-16299163.904698752</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="7">
+        <f>75/150</f>
         <v>0.5</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
-      <c r="S11">
-        <v>1.5</v>
+      <c r="S11" s="7">
+        <f>160/150</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -18747,7 +18993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -18785,19 +19031,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15:B22" si="9">(B3-C3)/C3</f>
+        <f t="shared" ref="B15:B22" si="10">(B3-C3)/C3</f>
         <v>-0.21788986687224784</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15:D22" si="10">(D3-C3)/C3</f>
+        <f t="shared" ref="D15:D22" si="11">(D3-C3)/C3</f>
         <v>0.17137072087995422</v>
       </c>
       <c r="E15" s="5">
@@ -18806,14 +19052,14 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <f t="shared" ref="G15:G22" si="11">-(G3-H3)/H3</f>
+        <f t="shared" ref="G15:G22" si="12">-(G3-H3)/H3</f>
         <v>-5.5194107141571837E-2</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" ref="I15:I22" si="12">-(I3-H3)/H3</f>
+        <f t="shared" ref="I15:I22" si="13">-(I3-H3)/H3</f>
         <v>4.3732964613130844E-2</v>
       </c>
       <c r="J15" s="5">
@@ -18822,14 +19068,14 @@
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4">
-        <f t="shared" ref="L15:L22" si="13">-(L3-M3)/M3</f>
+        <f t="shared" ref="L15:L22" si="14">-(L3-M3)/M3</f>
         <v>-2.1317282343354785E-2</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" ref="N15:N22" si="14">-(N3-M3)/M3</f>
+        <f t="shared" ref="N15:N22" si="15">-(N3-M3)/M3</f>
         <v>1.6959696210306564E-2</v>
       </c>
       <c r="O15" s="5">
@@ -18837,55 +19083,55 @@
         <v>-2471687.2273246571</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.66164951931162064</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0466686960629952</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16:E23" si="15">E4</f>
+        <f t="shared" ref="E16:E23" si="16">E4</f>
         <v>-34980423.083818436</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.15617178387881048</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.25354244415560828</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16:J23" si="16">J4</f>
+        <f t="shared" ref="J16:J23" si="17">J4</f>
         <v>-17281179.407560855</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.88468149936167E-2</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.7331130103433319E-2</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" ref="O16:O23" si="17">O4</f>
+        <f t="shared" ref="O16:O23" si="18">O4</f>
         <v>-10084992.250498973</v>
       </c>
     </row>
@@ -18894,50 +19140,50 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.18560155365959388</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.18560155365959372</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-7600950.2370176427</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-7.3543126864866859E-2</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3675808477251456E-2</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-6209491.0543929785</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.747766106689693E-2</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.7561603086182611E-2</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-6137039.6561520398</v>
       </c>
     </row>
@@ -18946,50 +19192,50 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.14030903444270895</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14030903444270859</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-5746083.3035860583</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.4412768162695449E-2</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4411505167712831E-2</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1215767.9783419967</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.5787287740996774E-3</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.5760937843188311E-3</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-978603.39988699555</v>
       </c>
     </row>
@@ -18998,50 +19244,50 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.10666508340218642</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10666508340218622</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-4368260.7983677648</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.3691758445766579E-2</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.3689268715416831E-2</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-2842038.5218848735</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-2.1388310242471478E-2</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.1385710630590683E-2</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2762078.0178625956</v>
       </c>
     </row>
@@ -19050,50 +19296,50 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.21524467764354416</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.2133263859157257</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-18076534.646570139</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.14769570165570817</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1460138588823584</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-18965921.469149932</v>
       </c>
     </row>
@@ -19102,50 +19348,50 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2.2898223327317366E-3</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2898223327317366E-3</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-93775.215021245182</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.31835676245591632</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.31839429425772314</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-26857278.79603431</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.25791703951409523</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.25794067380249136</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-33310856.010591492</v>
       </c>
     </row>
@@ -19154,50 +19400,50 @@
         <v>29</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-0.16858470310171303</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1685847031017132</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-6904058.2566927187</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.48461940155383093</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.48476070374877883</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-40887111.961480014</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.38941506422232353</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.38950757171614947</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-50297938.945837177</v>
       </c>
     </row>
@@ -19206,50 +19452,50 @@
         <v>28</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23" si="18">(B11-C11)/C11</f>
+        <f t="shared" ref="B23" si="19">(B11-C11)/C11</f>
         <v>-1.0814391787612216</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23" si="19">(D11-C11)/C11</f>
+        <f t="shared" ref="D23" si="20">(D11-C11)/C11</f>
         <v>1.0814391787612216</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-44288235.847428642</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <f t="shared" ref="G23" si="20">-(G11-H11)/H11</f>
+        <f t="shared" ref="G23" si="21">-(G11-H11)/H11</f>
         <v>-0.11019616429237628</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23" si="21">-(I11-H11)/H11</f>
+        <f t="shared" ref="I23" si="22">-(I11-H11)/H11</f>
         <v>0.30444099724696749</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-17488821.93322622</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4">
-        <f t="shared" ref="L23" si="22">-(L11-M11)/M11</f>
+        <f t="shared" ref="L23" si="23">-(L11-M11)/M11</f>
         <v>-6.1096935732044583E-2</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="23">-(N11-M11)/M11</f>
+        <f t="shared" ref="N23" si="24">-(N11-M11)/M11</f>
         <v>0.19131475306324572</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-16299163.904698752</v>
       </c>
     </row>
@@ -19270,59 +19516,59 @@
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" ref="B43:O43" si="24">B14</f>
+        <f t="shared" ref="B43:O43" si="25">B14</f>
         <v>NPV Max Worst</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Level</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>NPV Max Best</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Range</v>
       </c>
       <c r="F43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Tradeoff Worst</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Level</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Tradeoff Best</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Range</v>
       </c>
       <c r="K43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>GWP Min Worst</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Level</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>GWP Min Best</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Range</v>
       </c>
     </row>
@@ -19332,23 +19578,23 @@
         <v>Interest Rate</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:K44" si="25">B15</f>
+        <f t="shared" ref="B44:K44" si="26">B15</f>
         <v>-0.21788986687224784</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.17137072087995422</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-7970704.7123196013</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G44" s="3"/>
@@ -19356,7 +19602,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L44" s="3"/>
@@ -19371,7 +19617,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3">
-        <f t="shared" ref="F45:K45" si="26">F16</f>
+        <f t="shared" ref="F45:K45" si="27">F16</f>
         <v>0</v>
       </c>
       <c r="G45" s="3">
@@ -19391,7 +19637,7 @@
         <v>-4172607.0472564772</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L45" s="3"/>
@@ -19406,7 +19652,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3">
-        <f t="shared" ref="F46:K46" si="27">F17</f>
+        <f t="shared" ref="F46:K46" si="28">F17</f>
         <v>0</v>
       </c>
       <c r="G46" s="3"/>
@@ -19414,7 +19660,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L46" s="3">
@@ -19441,7 +19687,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:K47" si="28">F18</f>
+        <f t="shared" ref="F47:K47" si="29">F18</f>
         <v>0</v>
       </c>
       <c r="G47" s="3"/>
@@ -19449,7 +19695,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L47" s="3"/>
@@ -19479,7 +19725,7 @@
         <v>-34980423.083818436</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" ref="F48:K48" si="29">F19</f>
+        <f t="shared" ref="F48:K48" si="30">F19</f>
         <v>0</v>
       </c>
       <c r="G48" s="3"/>
@@ -19487,7 +19733,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L48" s="3"/>
@@ -19502,7 +19748,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
-        <f t="shared" ref="F49:K49" si="30">F20</f>
+        <f t="shared" ref="F49:K49" si="31">F20</f>
         <v>0</v>
       </c>
       <c r="G49" s="3">
@@ -19522,7 +19768,7 @@
         <v>-17281179.407560855</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L49" s="3"/>
@@ -19537,7 +19783,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3">
-        <f t="shared" ref="F50:K50" si="31">F21</f>
+        <f t="shared" ref="F50:K50" si="32">F21</f>
         <v>0</v>
       </c>
       <c r="G50" s="3"/>
@@ -19545,7 +19791,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L50" s="3">
@@ -19572,7 +19818,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3">
-        <f t="shared" ref="F51:K51" si="32">F22</f>
+        <f t="shared" ref="F51:K51" si="33">F22</f>
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
@@ -19580,7 +19826,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L51" s="3"/>
@@ -19610,7 +19856,7 @@
         <v>-7600950.2370176427</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:K52" si="33">F23</f>
+        <f t="shared" ref="F52:K52" si="34">F23</f>
         <v>0</v>
       </c>
       <c r="G52" s="3"/>
@@ -19618,7 +19864,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L52" s="3"/>

--- a/data/data analysis/ParetoFronts.xlsx
+++ b/data/data analysis/ParetoFronts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\pythonProject2\CLCO\data\data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74450855-E83D-4768-B8C4-AE3EED3D1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA233D-E49E-451E-AD04-C94181CC0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58410" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
+    <workbookView xWindow="952" yWindow="-98" windowWidth="27946" windowHeight="16395" activeTab="1" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6299,31 +6299,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.21788986687224784</c:v>
+                  <c:v>-0.67297121239916624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.66164951931162064</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.18560155365959388</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.14030903444270895</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.10666508340218642</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.2898223327317366E-3</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.16858470310171303</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.0814391787612216</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6402,31 +6402,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.17137072087995422</c:v>
+                  <c:v>0.18176071264026694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0466686960629952</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18560155365959372</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14030903444270859</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10666508340218622</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2898223327317366E-3</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1685847031017132</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0814391787612216</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6977,31 +6977,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-5.5194107141571837E-2</c:v>
+                  <c:v>-0.18743090665851936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.15617178387881048</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.3543126864866859E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.4412768162695449E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.3691758445766579E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.21524467764354416</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.31835676245591632</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.48461940155383093</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.11019616429237628</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7080,31 +7080,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.3732964613130844E-2</c:v>
+                  <c:v>5.0279613104531433E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25354244415560828</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3675808477251456E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4411505167712831E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3689268715416831E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2133263859157257</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31839429425772314</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48476070374877883</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30444099724696749</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7660,31 +7660,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-2.1317282343354785E-2</c:v>
+                  <c:v>-5.4822330880680031E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.88468149936167E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.747766106689693E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.5787287740996774E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.1388310242471478E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.14769570165570817</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.25791703951409523</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.38941506422232353</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.1096935732044583E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7763,31 +7763,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.6959696210306564E-2</c:v>
+                  <c:v>1.4564623408473244E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7331130103433319E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7561603086182611E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5760937843188311E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1385710630590683E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1460138588823584</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25794067380249136</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38950757171614947</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19131475306324572</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8286,31 +8286,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>-0.21788986687224784</c:v>
+                  <c:v>-0.67297121239916624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.66164951931162064</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.18560155365959388</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.14030903444270895</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.10666508340218642</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.2898223327317366E-3</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.16858470310171303</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.0814391787612216</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8390,31 +8390,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.17137072087995422</c:v>
+                  <c:v>0.18176071264026694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0466686960629952</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18560155365959372</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.14030903444270859</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10666508340218622</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2898223327317366E-3</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1685847031017132</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0814391787612216</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8491,31 +8491,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="1">
-                  <c:v>-5.5194107141571837E-2</c:v>
+                  <c:v>-0.18743090665851936</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.15617178387881048</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.3543126864866859E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.4412768162695449E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.3691758445766579E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.21524467764354416</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.31835676245591632</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.48461940155383093</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.11019616429237628</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8592,31 +8592,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="1">
-                  <c:v>4.3732964613130844E-2</c:v>
+                  <c:v>5.0279613104531433E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25354244415560828</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3675808477251456E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4411505167712831E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3689268715416831E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2133263859157257</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31839429425772314</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.48476070374877883</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.30444099724696749</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8695,31 +8695,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="2">
-                  <c:v>-2.1317282343354785E-2</c:v>
+                  <c:v>-5.4822330880680031E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.88468149936167E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.747766106689693E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.5787287740996774E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.1388310242471478E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.14769570165570817</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.25791703951409523</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.38941506422232353</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.1096935732044583E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8798,31 +8798,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="2">
-                  <c:v>1.6959696210306564E-2</c:v>
+                  <c:v>1.4564623408473244E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7331130103433319E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7561603086182611E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5760937843188311E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.1385710630590683E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1460138588823584</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25794067380249136</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.38950757171614947</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.19131475306324572</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9176,31 +9176,31 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="35"/>
                       <c:pt idx="0">
-                        <c:v>-7970704.7123196013</c:v>
+                        <c:v>-15532557.946518308</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-34980423.083818436</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-7600950.2370176427</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>-5746083.3035860583</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>-4368260.7983677648</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="20">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>-93775.215021245182</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>-6904058.2566927187</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>-44288235.847428642</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9543,31 +9543,31 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="35"/>
                       <c:pt idx="1">
-                        <c:v>-4172607.0472564772</c:v>
+                        <c:v>-8879458.1420392171</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-17281179.407560855</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-6209491.0543929785</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>-1215767.9783419967</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>-2842038.5218848735</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>-18076534.646570139</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>-26857278.79603431</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>-40887111.961480014</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>-17488821.93322622</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9914,31 +9914,31 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="35"/>
                       <c:pt idx="2">
-                        <c:v>-2471687.2273246571</c:v>
+                        <c:v>-4541166.5511395857</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-10084992.250498973</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-6137039.6561520398</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>-978603.39988699555</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>-2762078.0178625956</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>-18965921.469149932</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>-33310856.010591492</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>-50297938.945837177</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>-16299163.904698752</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -18315,7 +18315,7 @@
   <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18323,9 +18323,13 @@
     <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18407,43 +18411,43 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16014898.810261119</v>
+        <v>5942908.4661313314</v>
       </c>
       <c r="C3">
-        <v>20476526.427570526</v>
+        <v>18172432.187790003</v>
       </c>
       <c r="D3">
-        <v>23985603.52258072</v>
+        <v>21475466.412649639</v>
       </c>
       <c r="E3">
         <f>B3-D3</f>
-        <v>-7970704.7123196013</v>
+        <v>-15532557.946518308</v>
       </c>
       <c r="G3">
-        <v>-44506627.85814368</v>
+        <v>-44355390.929892264</v>
       </c>
       <c r="H3">
-        <v>-42178616.765315555</v>
+        <v>-37354081.556383103</v>
       </c>
       <c r="I3">
-        <v>-40334020.810887203</v>
+        <v>-35475932.787853047</v>
       </c>
       <c r="J3">
         <f>G3-I3</f>
-        <v>-4172607.0472564772</v>
+        <v>-8879458.1420392171</v>
       </c>
       <c r="L3">
-        <v>-65950265.073169775</v>
+        <v>-69034935.103632867</v>
       </c>
       <c r="M3">
-        <v>-64573728.667207725</v>
+        <v>-65446979.157139212</v>
       </c>
       <c r="N3">
-        <v>-63478577.845845118</v>
+        <v>-64493768.552493282</v>
       </c>
       <c r="O3">
         <f>L3-N3</f>
-        <v>-2471687.2273246571</v>
+        <v>-4541166.5511395857</v>
       </c>
       <c r="Q3" s="2">
         <v>0.18</v>
@@ -18468,47 +18472,29 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>6928242.5595967919</v>
-      </c>
       <c r="C4">
         <f>C3</f>
-        <v>20476526.427570526</v>
-      </c>
-      <c r="D4">
-        <v>41908665.643415228</v>
+        <v>18172432.187790003</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E11" si="0">B4-D4</f>
-        <v>-34980423.083818436</v>
-      </c>
-      <c r="G4">
-        <v>-48765726.587095588</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f>H3</f>
-        <v>-42178616.765315555</v>
-      </c>
-      <c r="I4">
-        <v>-31484547.179534733</v>
+        <v>-37354081.556383103</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J11" si="1">G4-I4</f>
-        <v>-17281179.407560855</v>
-      </c>
-      <c r="L4">
-        <v>-68373686.931534901</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f>M3</f>
-        <v>-64573728.667207725</v>
-      </c>
-      <c r="N4">
-        <v>-58288694.681035928</v>
+        <v>-65446979.157139212</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O11" si="2">L4-N4</f>
-        <v>-10084992.250498973</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -18530,47 +18516,29 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
-        <v>16676051.309061702</v>
-      </c>
       <c r="C5">
-        <f t="shared" ref="C5:C10" si="3">C4</f>
-        <v>20476526.427570526</v>
-      </c>
-      <c r="D5">
-        <v>24277001.546079345</v>
+        <f t="shared" ref="C5:C11" si="3">C4</f>
+        <v>18172432.187790003</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>-7600950.2370176427</v>
-      </c>
-      <c r="G5">
-        <v>-45280564.129071757</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H10" si="4">H4</f>
-        <v>-42178616.765315555</v>
-      </c>
-      <c r="I5">
-        <v>-39071073.074678779</v>
+        <f t="shared" ref="H5:H11" si="4">H4</f>
+        <v>-37354081.556383103</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>-6209491.0543929785</v>
-      </c>
-      <c r="L5">
-        <v>-67639538.27069518</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M10" si="5">M4</f>
-        <v>-64573728.667207725</v>
-      </c>
-      <c r="N5">
-        <v>-61502498.61454314</v>
+        <f t="shared" ref="M5:M11" si="5">M4</f>
+        <v>-65446979.157139212</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>-6137039.6561520398</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0.67</v>
@@ -18596,47 +18564,29 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>17603484.775777493</v>
-      </c>
       <c r="C6">
         <f t="shared" si="3"/>
-        <v>20476526.427570526</v>
-      </c>
-      <c r="D6">
-        <v>23349568.079363551</v>
+        <v>18172432.187790003</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>-5746083.3035860583</v>
-      </c>
-      <c r="G6">
-        <v>-42786527.390177228</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
-        <v>-42178616.765315555</v>
-      </c>
-      <c r="I6">
-        <v>-41570759.411835231</v>
+        <v>-37354081.556383103</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>-1215767.9783419967</v>
-      </c>
-      <c r="L6">
-        <v>-65063115.442708798</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>-64573728.667207725</v>
-      </c>
-      <c r="N6">
-        <v>-64084512.042821802</v>
+        <v>-65446979.157139212</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>-978603.39988699555</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0.67</v>
@@ -18662,47 +18612,29 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>18292396.028386641</v>
-      </c>
       <c r="C7">
         <f t="shared" si="3"/>
-        <v>20476526.427570526</v>
-      </c>
-      <c r="D7">
-        <v>22660656.826754406</v>
+        <v>18172432.187790003</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-4368260.7983677648</v>
-      </c>
-      <c r="G7">
-        <v>-43599688.532949127</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>-42178616.765315555</v>
-      </c>
-      <c r="I7">
-        <v>-40757650.011064254</v>
+        <v>-37354081.556383103</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>-2842038.5218848735</v>
-      </c>
-      <c r="L7">
-        <v>-65954851.609455138</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>-64573728.667207725</v>
-      </c>
-      <c r="N7">
-        <v>-63192773.591592543</v>
+        <v>-65446979.157139212</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>-2762078.0178625956</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0.67</v>
@@ -18728,47 +18660,29 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>20476526.427570526</v>
-      </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>20476526.427570526</v>
-      </c>
-      <c r="D8">
-        <v>20476526.427570526</v>
+        <v>18172432.187790003</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>-51257339.534416489</v>
-      </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>-42178616.765315555</v>
-      </c>
-      <c r="I8">
-        <v>-33180804.887846351</v>
+        <v>-37354081.556383103</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>-18076534.646570139</v>
-      </c>
-      <c r="L8">
-        <v>-74110990.831236288</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>-64573728.667207725</v>
-      </c>
-      <c r="N8">
-        <v>-55145069.362086356</v>
+        <v>-65446979.157139212</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>-18965921.469149932</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0.92</v>
@@ -18791,47 +18705,29 @@
       <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B9">
-        <v>20429638.820059903</v>
-      </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>20476526.427570526</v>
-      </c>
-      <c r="D9">
-        <v>20523414.035081148</v>
+        <v>18172432.187790003</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-93775.215021245182</v>
-      </c>
-      <c r="G9">
-        <v>-55606464.643590249</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>-42178616.765315555</v>
-      </c>
-      <c r="I9">
-        <v>-28749185.847555939</v>
+        <v>-37354081.556383103</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>-26857278.79603431</v>
-      </c>
-      <c r="L9">
-        <v>-81228393.595440403</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
-        <v>-64573728.667207725</v>
-      </c>
-      <c r="N9">
-        <v>-47917537.584848911</v>
+        <v>-65446979.157139212</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>-33310856.010591492</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="6">
         <f>R9*Q10</f>
@@ -18858,47 +18754,29 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10">
-        <v>17024497.299224168</v>
-      </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>20476526.427570526</v>
-      </c>
-      <c r="D10">
-        <v>23928555.555916887</v>
+        <v>18172432.187790003</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-6904058.2566927187</v>
-      </c>
-      <c r="G10">
-        <v>-62619192.780491158</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>-42178616.765315555</v>
-      </c>
-      <c r="I10">
-        <v>-21732080.819011144</v>
+        <v>-37354081.556383103</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>-40887111.961480014</v>
-      </c>
-      <c r="L10">
-        <v>-89719711.363223314</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>-64573728.667207725</v>
-      </c>
-      <c r="N10">
-        <v>-39421772.417386137</v>
+        <v>-65446979.157139212</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>-50297938.945837177</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7">
         <f>2-S10</f>
@@ -18925,47 +18803,29 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
-        <v>-1667591.4961437958</v>
-      </c>
       <c r="C11">
-        <f t="shared" ref="C11" si="7">C9</f>
-        <v>20476526.427570526</v>
-      </c>
-      <c r="D11">
-        <v>42620644.351284847</v>
+        <f t="shared" si="3"/>
+        <v>18172432.187790003</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-44288235.847428642</v>
-      </c>
-      <c r="G11">
-        <v>-46826538.548011445</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11" si="8">H9</f>
-        <v>-42178616.765315555</v>
-      </c>
-      <c r="I11">
-        <v>-29337716.614785224</v>
+        <f t="shared" si="4"/>
+        <v>-37354081.556383103</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>-17488821.93322622</v>
-      </c>
-      <c r="L11">
-        <v>-68518985.6175666</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11" si="9">M9</f>
-        <v>-64573728.667207725</v>
-      </c>
-      <c r="N11">
-        <v>-52219821.712867849</v>
+        <f t="shared" si="5"/>
+        <v>-65446979.157139212</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>-16299163.904698752</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7">
         <f>75/150</f>
@@ -19036,51 +18896,51 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15:B22" si="10">(B3-C3)/C3</f>
-        <v>-0.21788986687224784</v>
+        <f t="shared" ref="B15:B22" si="7">(B3-C3)/C3</f>
+        <v>-0.67297121239916624</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ref="D15:D22" si="11">(D3-C3)/C3</f>
-        <v>0.17137072087995422</v>
+        <f t="shared" ref="D15:D22" si="8">(D3-C3)/C3</f>
+        <v>0.18176071264026694</v>
       </c>
       <c r="E15" s="5">
         <f>E3</f>
-        <v>-7970704.7123196013</v>
+        <v>-15532557.946518308</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <f t="shared" ref="G15:G22" si="12">-(G3-H3)/H3</f>
-        <v>-5.5194107141571837E-2</v>
+        <f t="shared" ref="G15:G22" si="9">-(G3-H3)/H3</f>
+        <v>-0.18743090665851936</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" ref="I15:I22" si="13">-(I3-H3)/H3</f>
-        <v>4.3732964613130844E-2</v>
+        <f t="shared" ref="I15:I22" si="10">-(I3-H3)/H3</f>
+        <v>5.0279613104531433E-2</v>
       </c>
       <c r="J15" s="5">
         <f>J3</f>
-        <v>-4172607.0472564772</v>
+        <v>-8879458.1420392171</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4">
-        <f t="shared" ref="L15:L22" si="14">-(L3-M3)/M3</f>
-        <v>-2.1317282343354785E-2</v>
+        <f t="shared" ref="L15:L22" si="11">-(L3-M3)/M3</f>
+        <v>-5.4822330880680031E-2</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" ref="N15:N22" si="15">-(N3-M3)/M3</f>
-        <v>1.6959696210306564E-2</v>
+        <f t="shared" ref="N15:N22" si="12">-(N3-M3)/M3</f>
+        <v>1.4564623408473244E-2</v>
       </c>
       <c r="O15" s="5">
         <f>O3</f>
-        <v>-2471687.2273246571</v>
+        <v>-4541166.5511395857</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -19088,51 +18948,51 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.66164951931162064</v>
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="11"/>
-        <v>1.0466686960629952</v>
+        <f t="shared" si="8"/>
+        <v>-1</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" ref="E16:E23" si="16">E4</f>
-        <v>-34980423.083818436</v>
+        <f t="shared" ref="E16:E23" si="13">E4</f>
+        <v>0</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <f t="shared" si="12"/>
-        <v>-0.15617178387881048</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="13"/>
-        <v>0.25354244415560828</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16:J23" si="17">J4</f>
-        <v>-17281179.407560855</v>
+        <f t="shared" ref="J16:J23" si="14">J4</f>
+        <v>0</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4">
-        <f t="shared" si="14"/>
-        <v>-5.88468149936167E-2</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="15"/>
-        <v>9.7331130103433319E-2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" ref="O16:O23" si="18">O4</f>
-        <v>-10084992.250498973</v>
+        <f t="shared" ref="O16:O23" si="15">O4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
@@ -19140,51 +19000,51 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.18560155365959388</v>
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="11"/>
-        <v>0.18560155365959372</v>
+        <f t="shared" si="8"/>
+        <v>-1</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="16"/>
-        <v>-7600950.2370176427</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <f t="shared" si="12"/>
-        <v>-7.3543126864866859E-2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="13"/>
-        <v>7.3675808477251456E-2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="17"/>
-        <v>-6209491.0543929785</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4">
-        <f t="shared" si="14"/>
-        <v>-4.747766106689693E-2</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
         <f t="shared" si="15"/>
-        <v>4.7561603086182611E-2</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="18"/>
-        <v>-6137039.6561520398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
@@ -19192,51 +19052,51 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.14030903444270895</v>
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="11"/>
-        <v>0.14030903444270859</v>
+        <f t="shared" si="8"/>
+        <v>-1</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="16"/>
-        <v>-5746083.3035860583</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <f t="shared" si="12"/>
-        <v>-1.4412768162695449E-2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="13"/>
-        <v>1.4411505167712831E-2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="17"/>
-        <v>-1215767.9783419967</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4">
-        <f t="shared" si="14"/>
-        <v>-7.5787287740996774E-3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
         <f t="shared" si="15"/>
-        <v>7.5760937843188311E-3</v>
-      </c>
-      <c r="O18" s="5">
-        <f t="shared" si="18"/>
-        <v>-978603.39988699555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
@@ -19244,51 +19104,51 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.10666508340218642</v>
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="11"/>
-        <v>0.10666508340218622</v>
+        <f t="shared" si="8"/>
+        <v>-1</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="16"/>
-        <v>-4368260.7983677648</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <f t="shared" si="12"/>
-        <v>-3.3691758445766579E-2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="13"/>
-        <v>3.3689268715416831E-2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="17"/>
-        <v>-2842038.5218848735</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4">
-        <f t="shared" si="14"/>
-        <v>-2.1388310242471478E-2</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
         <f t="shared" si="15"/>
-        <v>2.1385710630590683E-2</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" si="18"/>
-        <v>-2762078.0178625956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -19296,51 +19156,51 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-1</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <f t="shared" si="12"/>
-        <v>-0.21524467764354416</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="13"/>
-        <v>0.2133263859157257</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="17"/>
-        <v>-18076534.646570139</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4">
-        <f t="shared" si="14"/>
-        <v>-0.14769570165570817</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
         <f t="shared" si="15"/>
-        <v>0.1460138588823584</v>
-      </c>
-      <c r="O20" s="5">
-        <f t="shared" si="18"/>
-        <v>-18965921.469149932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
@@ -19348,51 +19208,51 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="10"/>
-        <v>-2.2898223327317366E-3</v>
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="11"/>
-        <v>2.2898223327317366E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="16"/>
-        <v>-93775.215021245182</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <f t="shared" si="12"/>
-        <v>-0.31835676245591632</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="13"/>
-        <v>0.31839429425772314</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="17"/>
-        <v>-26857278.79603431</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4">
-        <f t="shared" si="14"/>
-        <v>-0.25791703951409523</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
         <f t="shared" si="15"/>
-        <v>0.25794067380249136</v>
-      </c>
-      <c r="O21" s="5">
-        <f t="shared" si="18"/>
-        <v>-33310856.010591492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
@@ -19400,51 +19260,51 @@
         <v>29</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.16858470310171303</v>
+        <f t="shared" si="7"/>
+        <v>-1</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="11"/>
-        <v>0.1685847031017132</v>
+        <f t="shared" si="8"/>
+        <v>-1</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="16"/>
-        <v>-6904058.2566927187</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <f t="shared" si="12"/>
-        <v>-0.48461940155383093</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="13"/>
-        <v>0.48476070374877883</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="17"/>
-        <v>-40887111.961480014</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4">
-        <f t="shared" si="14"/>
-        <v>-0.38941506422232353</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
       </c>
       <c r="N22" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
         <f t="shared" si="15"/>
-        <v>0.38950757171614947</v>
-      </c>
-      <c r="O22" s="5">
-        <f t="shared" si="18"/>
-        <v>-50297938.945837177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
@@ -19452,51 +19312,51 @@
         <v>28</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23" si="19">(B11-C11)/C11</f>
-        <v>-1.0814391787612216</v>
+        <f t="shared" ref="B23" si="16">(B11-C11)/C11</f>
+        <v>-1</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23" si="20">(D11-C11)/C11</f>
-        <v>1.0814391787612216</v>
+        <f t="shared" ref="D23" si="17">(D11-C11)/C11</f>
+        <v>-1</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="16"/>
-        <v>-44288235.847428642</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <f t="shared" ref="G23" si="21">-(G11-H11)/H11</f>
-        <v>-0.11019616429237628</v>
+        <f t="shared" ref="G23" si="18">-(G11-H11)/H11</f>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23" si="22">-(I11-H11)/H11</f>
-        <v>0.30444099724696749</v>
+        <f t="shared" ref="I23" si="19">-(I11-H11)/H11</f>
+        <v>1</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="17"/>
-        <v>-17488821.93322622</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4">
-        <f t="shared" ref="L23" si="23">-(L11-M11)/M11</f>
-        <v>-6.1096935732044583E-2</v>
+        <f t="shared" ref="L23" si="20">-(L11-M11)/M11</f>
+        <v>1</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="24">-(N11-M11)/M11</f>
-        <v>0.19131475306324572</v>
+        <f t="shared" ref="N23" si="21">-(N11-M11)/M11</f>
+        <v>1</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="18"/>
-        <v>-16299163.904698752</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -19516,59 +19376,59 @@
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" ref="B43:O43" si="25">B14</f>
+        <f t="shared" ref="B43:O43" si="22">B14</f>
         <v>NPV Max Worst</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Level</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>NPV Max Best</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Range</v>
       </c>
       <c r="F43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Tradeoff Worst</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Level</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Tradeoff Best</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Range</v>
       </c>
       <c r="K43">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>GWP Min Worst</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Level</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>GWP Min Best</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>Range</v>
       </c>
     </row>
@@ -19578,23 +19438,23 @@
         <v>Interest Rate</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:K44" si="26">B15</f>
-        <v>-0.21788986687224784</v>
+        <f t="shared" ref="B44:K44" si="23">B15</f>
+        <v>-0.67297121239916624</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="26"/>
-        <v>0.17137072087995422</v>
+        <f t="shared" si="23"/>
+        <v>0.18176071264026694</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="26"/>
-        <v>-7970704.7123196013</v>
+        <f t="shared" si="23"/>
+        <v>-15532557.946518308</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G44" s="3"/>
@@ -19602,7 +19462,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L44" s="3"/>
@@ -19617,12 +19477,12 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3">
-        <f t="shared" ref="F45:K45" si="27">F16</f>
+        <f t="shared" ref="F45:K45" si="24">F16</f>
         <v>0</v>
       </c>
       <c r="G45" s="3">
         <f>G15</f>
-        <v>-5.5194107141571837E-2</v>
+        <v>-0.18743090665851936</v>
       </c>
       <c r="H45" s="3">
         <f>H15</f>
@@ -19630,14 +19490,14 @@
       </c>
       <c r="I45" s="3">
         <f>I15</f>
-        <v>4.3732964613130844E-2</v>
+        <v>5.0279613104531433E-2</v>
       </c>
       <c r="J45" s="3">
         <f>J15</f>
-        <v>-4172607.0472564772</v>
+        <v>-8879458.1420392171</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L45" s="3"/>
@@ -19652,7 +19512,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3">
-        <f t="shared" ref="F46:K46" si="28">F17</f>
+        <f t="shared" ref="F46:K46" si="25">F17</f>
         <v>0</v>
       </c>
       <c r="G46" s="3"/>
@@ -19660,12 +19520,12 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L46" s="3">
         <f>L15</f>
-        <v>-2.1317282343354785E-2</v>
+        <v>-5.4822330880680031E-2</v>
       </c>
       <c r="M46" s="3">
         <f>M15</f>
@@ -19673,11 +19533,11 @@
       </c>
       <c r="N46" s="3">
         <f>N15</f>
-        <v>1.6959696210306564E-2</v>
+        <v>1.4564623408473244E-2</v>
       </c>
       <c r="O46" s="3">
         <f>O15</f>
-        <v>-2471687.2273246571</v>
+        <v>-4541166.5511395857</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
@@ -19687,7 +19547,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:K47" si="29">F18</f>
+        <f t="shared" ref="F47:K47" si="26">F18</f>
         <v>0</v>
       </c>
       <c r="G47" s="3"/>
@@ -19695,7 +19555,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L47" s="3"/>
@@ -19710,7 +19570,7 @@
       </c>
       <c r="B48" s="3">
         <f>B16</f>
-        <v>-0.66164951931162064</v>
+        <v>-1</v>
       </c>
       <c r="C48" s="3">
         <f>C16</f>
@@ -19718,14 +19578,14 @@
       </c>
       <c r="D48" s="3">
         <f>D16</f>
-        <v>1.0466686960629952</v>
+        <v>-1</v>
       </c>
       <c r="E48" s="3">
         <f>E16</f>
-        <v>-34980423.083818436</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" ref="F48:K48" si="30">F19</f>
+        <f t="shared" ref="F48:K48" si="27">F19</f>
         <v>0</v>
       </c>
       <c r="G48" s="3"/>
@@ -19733,7 +19593,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L48" s="3"/>
@@ -19748,12 +19608,12 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
-        <f t="shared" ref="F49:K49" si="31">F20</f>
+        <f t="shared" ref="F49:K49" si="28">F20</f>
         <v>0</v>
       </c>
       <c r="G49" s="3">
         <f>G16</f>
-        <v>-0.15617178387881048</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3">
         <f>H16</f>
@@ -19761,14 +19621,14 @@
       </c>
       <c r="I49" s="3">
         <f>I16</f>
-        <v>0.25354244415560828</v>
+        <v>1</v>
       </c>
       <c r="J49" s="3">
         <f>J16</f>
-        <v>-17281179.407560855</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L49" s="3"/>
@@ -19783,7 +19643,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3">
-        <f t="shared" ref="F50:K50" si="32">F21</f>
+        <f t="shared" ref="F50:K50" si="29">F21</f>
         <v>0</v>
       </c>
       <c r="G50" s="3"/>
@@ -19791,12 +19651,12 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L50" s="3">
         <f>L16</f>
-        <v>-5.88468149936167E-2</v>
+        <v>1</v>
       </c>
       <c r="M50" s="3">
         <f>M16</f>
@@ -19804,11 +19664,11 @@
       </c>
       <c r="N50" s="3">
         <f>N16</f>
-        <v>9.7331130103433319E-2</v>
+        <v>1</v>
       </c>
       <c r="O50" s="3">
         <f>O16</f>
-        <v>-10084992.250498973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
@@ -19818,7 +19678,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3">
-        <f t="shared" ref="F51:K51" si="33">F22</f>
+        <f t="shared" ref="F51:K51" si="30">F22</f>
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
@@ -19826,7 +19686,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="L51" s="3"/>
@@ -19841,7 +19701,7 @@
       </c>
       <c r="B52" s="3">
         <f>B17</f>
-        <v>-0.18560155365959388</v>
+        <v>-1</v>
       </c>
       <c r="C52" s="3">
         <f>C17</f>
@@ -19849,14 +19709,14 @@
       </c>
       <c r="D52" s="3">
         <f>D17</f>
-        <v>0.18560155365959372</v>
+        <v>-1</v>
       </c>
       <c r="E52" s="3">
         <f>E17</f>
-        <v>-7600950.2370176427</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:K52" si="34">F23</f>
+        <f t="shared" ref="F52:K52" si="31">F23</f>
         <v>0</v>
       </c>
       <c r="G52" s="3"/>
@@ -19864,7 +19724,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L52" s="3"/>
@@ -19881,7 +19741,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3">
         <f>G17</f>
-        <v>-7.3543126864866859E-2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="3">
         <f>H17</f>
@@ -19889,11 +19749,11 @@
       </c>
       <c r="I53" s="3">
         <f>I17</f>
-        <v>7.3675808477251456E-2</v>
+        <v>1</v>
       </c>
       <c r="J53" s="3">
         <f>J17</f>
-        <v>-6209491.0543929785</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -19915,7 +19775,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3">
         <f>L17</f>
-        <v>-4.747766106689693E-2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="3">
         <f>M17</f>
@@ -19923,11 +19783,11 @@
       </c>
       <c r="N54" s="3">
         <f>N17</f>
-        <v>4.7561603086182611E-2</v>
+        <v>1</v>
       </c>
       <c r="O54" s="3">
         <f>O17</f>
-        <v>-6137039.6561520398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
@@ -19954,7 +19814,7 @@
       </c>
       <c r="B56" s="3">
         <f>B18</f>
-        <v>-0.14030903444270895</v>
+        <v>-1</v>
       </c>
       <c r="C56" s="3">
         <f>C18</f>
@@ -19962,11 +19822,11 @@
       </c>
       <c r="D56" s="3">
         <f>D18</f>
-        <v>0.14030903444270859</v>
+        <v>-1</v>
       </c>
       <c r="E56" s="3">
         <f>E18</f>
-        <v>-5746083.3035860583</v>
+        <v>0</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -19988,7 +19848,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3">
         <f>G18</f>
-        <v>-1.4412768162695449E-2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="3">
         <f>H18</f>
@@ -19996,11 +19856,11 @@
       </c>
       <c r="I57" s="3">
         <f>I18</f>
-        <v>1.4411505167712831E-2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="3">
         <f>J18</f>
-        <v>-1215767.9783419967</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -20022,7 +19882,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3">
         <f>L18</f>
-        <v>-7.5787287740996774E-3</v>
+        <v>1</v>
       </c>
       <c r="M58" s="3">
         <f>M18</f>
@@ -20030,11 +19890,11 @@
       </c>
       <c r="N58" s="3">
         <f>N18</f>
-        <v>7.5760937843188311E-3</v>
+        <v>1</v>
       </c>
       <c r="O58" s="3">
         <f>O18</f>
-        <v>-978603.39988699555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
@@ -20061,7 +19921,7 @@
       </c>
       <c r="B60" s="3">
         <f>B19</f>
-        <v>-0.10666508340218642</v>
+        <v>-1</v>
       </c>
       <c r="C60" s="3">
         <f>C19</f>
@@ -20069,11 +19929,11 @@
       </c>
       <c r="D60" s="3">
         <f>D19</f>
-        <v>0.10666508340218622</v>
+        <v>-1</v>
       </c>
       <c r="E60" s="3">
         <f>E19</f>
-        <v>-4368260.7983677648</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -20095,7 +19955,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3">
         <f>G19</f>
-        <v>-3.3691758445766579E-2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="3">
         <f>H19</f>
@@ -20103,11 +19963,11 @@
       </c>
       <c r="I61" s="3">
         <f>I19</f>
-        <v>3.3689268715416831E-2</v>
+        <v>1</v>
       </c>
       <c r="J61" s="3">
         <f>J19</f>
-        <v>-2842038.5218848735</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -20129,7 +19989,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3">
         <f>L19</f>
-        <v>-2.1388310242471478E-2</v>
+        <v>1</v>
       </c>
       <c r="M62" s="3">
         <f>M19</f>
@@ -20137,11 +19997,11 @@
       </c>
       <c r="N62" s="3">
         <f>N19</f>
-        <v>2.1385710630590683E-2</v>
+        <v>1</v>
       </c>
       <c r="O62" s="3">
         <f>O19</f>
-        <v>-2762078.0178625956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
@@ -20168,7 +20028,7 @@
       </c>
       <c r="B64" s="3">
         <f>B20</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C64" s="3">
         <f>C20</f>
@@ -20176,7 +20036,7 @@
       </c>
       <c r="D64" s="3">
         <f>D20</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E64" s="3">
         <f>E20</f>
@@ -20202,7 +20062,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3">
         <f>G20</f>
-        <v>-0.21524467764354416</v>
+        <v>1</v>
       </c>
       <c r="H65" s="3">
         <f>H20</f>
@@ -20210,11 +20070,11 @@
       </c>
       <c r="I65" s="3">
         <f>I20</f>
-        <v>0.2133263859157257</v>
+        <v>1</v>
       </c>
       <c r="J65" s="3">
         <f>J20</f>
-        <v>-18076534.646570139</v>
+        <v>0</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -20236,7 +20096,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3">
         <f>L20</f>
-        <v>-0.14769570165570817</v>
+        <v>1</v>
       </c>
       <c r="M66" s="3">
         <f>M20</f>
@@ -20244,11 +20104,11 @@
       </c>
       <c r="N66" s="3">
         <f>N20</f>
-        <v>0.1460138588823584</v>
+        <v>1</v>
       </c>
       <c r="O66" s="3">
         <f>O20</f>
-        <v>-18965921.469149932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.45">
@@ -20275,7 +20135,7 @@
       </c>
       <c r="B68" s="3">
         <f>B21</f>
-        <v>-2.2898223327317366E-3</v>
+        <v>-1</v>
       </c>
       <c r="C68" s="3">
         <f>C21</f>
@@ -20283,11 +20143,11 @@
       </c>
       <c r="D68" s="3">
         <f>D21</f>
-        <v>2.2898223327317366E-3</v>
+        <v>-1</v>
       </c>
       <c r="E68" s="3">
         <f>E21</f>
-        <v>-93775.215021245182</v>
+        <v>0</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -20309,7 +20169,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3">
         <f>G21</f>
-        <v>-0.31835676245591632</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
         <f>H21</f>
@@ -20317,11 +20177,11 @@
       </c>
       <c r="I69" s="3">
         <f>I21</f>
-        <v>0.31839429425772314</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3">
         <f>J21</f>
-        <v>-26857278.79603431</v>
+        <v>0</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -20343,7 +20203,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3">
         <f>L21</f>
-        <v>-0.25791703951409523</v>
+        <v>1</v>
       </c>
       <c r="M70" s="3">
         <f>M21</f>
@@ -20351,11 +20211,11 @@
       </c>
       <c r="N70" s="3">
         <f>N21</f>
-        <v>0.25794067380249136</v>
+        <v>1</v>
       </c>
       <c r="O70" s="3">
         <f>O21</f>
-        <v>-33310856.010591492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.45">
@@ -20382,7 +20242,7 @@
       </c>
       <c r="B72" s="3">
         <f>B22</f>
-        <v>-0.16858470310171303</v>
+        <v>-1</v>
       </c>
       <c r="C72" s="3">
         <f>C22</f>
@@ -20390,11 +20250,11 @@
       </c>
       <c r="D72" s="3">
         <f>D22</f>
-        <v>0.1685847031017132</v>
+        <v>-1</v>
       </c>
       <c r="E72" s="3">
         <f>E22</f>
-        <v>-6904058.2566927187</v>
+        <v>0</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -20416,7 +20276,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3">
         <f>G22</f>
-        <v>-0.48461940155383093</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
         <f>H22</f>
@@ -20424,11 +20284,11 @@
       </c>
       <c r="I73" s="3">
         <f>I22</f>
-        <v>0.48476070374877883</v>
+        <v>1</v>
       </c>
       <c r="J73" s="3">
         <f>J22</f>
-        <v>-40887111.961480014</v>
+        <v>0</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -20450,7 +20310,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3">
         <f>L22</f>
-        <v>-0.38941506422232353</v>
+        <v>1</v>
       </c>
       <c r="M74" s="3">
         <f>M22</f>
@@ -20458,11 +20318,11 @@
       </c>
       <c r="N74" s="3">
         <f>N22</f>
-        <v>0.38950757171614947</v>
+        <v>1</v>
       </c>
       <c r="O74" s="3">
         <f>O22</f>
-        <v>-50297938.945837177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.45">
@@ -20489,7 +20349,7 @@
       </c>
       <c r="B76" s="3">
         <f>B23</f>
-        <v>-1.0814391787612216</v>
+        <v>-1</v>
       </c>
       <c r="C76" s="3">
         <f>C23</f>
@@ -20497,11 +20357,11 @@
       </c>
       <c r="D76" s="3">
         <f>D23</f>
-        <v>1.0814391787612216</v>
+        <v>-1</v>
       </c>
       <c r="E76" s="3">
         <f>E23</f>
-        <v>-44288235.847428642</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -20522,7 +20382,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3">
         <f>G23</f>
-        <v>-0.11019616429237628</v>
+        <v>1</v>
       </c>
       <c r="H77" s="3">
         <f>H23</f>
@@ -20530,11 +20390,11 @@
       </c>
       <c r="I77" s="3">
         <f>I23</f>
-        <v>0.30444099724696749</v>
+        <v>1</v>
       </c>
       <c r="J77" s="3">
         <f>J23</f>
-        <v>-17488821.93322622</v>
+        <v>0</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -20556,7 +20416,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3">
         <f>L23</f>
-        <v>-6.1096935732044583E-2</v>
+        <v>1</v>
       </c>
       <c r="M78" s="3">
         <f>M23</f>
@@ -20564,11 +20424,11 @@
       </c>
       <c r="N78" s="3">
         <f>N23</f>
-        <v>0.19131475306324572</v>
+        <v>1</v>
       </c>
       <c r="O78" s="3">
         <f>O23</f>
-        <v>-16299163.904698752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.45">

--- a/data/data analysis/ParetoFronts.xlsx
+++ b/data/data analysis/ParetoFronts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\pythonProject2\CLCO\data\data analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA233D-E49E-451E-AD04-C94181CC0766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5937C68-430C-4DE3-888A-DB967161CD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="952" yWindow="-98" windowWidth="27946" windowHeight="16395" activeTab="1" xr2:uid="{180483B0-1FC3-4C21-9EEA-45AA4E0616C1}"/>
   </bookViews>
@@ -16,7 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sensitivity Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sensitivity Analysis'!$A$2:$P$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>Largest Facility</t>
   </si>
@@ -108,9 +112,6 @@
     <t>Energy Content</t>
   </si>
   <si>
-    <t>OPEX Ratio</t>
-  </si>
-  <si>
     <t>Factor Levels</t>
   </si>
   <si>
@@ -121,9 +122,6 @@
   </si>
   <si>
     <t>Fertilizer Price</t>
-  </si>
-  <si>
-    <t>CAPEX Ratio</t>
   </si>
   <si>
     <t>Range</t>
@@ -295,6 +293,12 @@
       </rPr>
       <t xml:space="preserve">(4), 64. Retrieved from https://www.proquest.com/trade-journals/economic-indicators/docview/2793119727/se-2 </t>
     </r>
+  </si>
+  <si>
+    <t>SUM RANGE</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -1644,6 +1648,387 @@
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24590817278051388"/>
+          <c:y val="3.3975154187581069E-2"/>
+          <c:w val="0.74757773061184296"/>
+          <c:h val="0.83830513255757411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensitivity Analysis'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAPEX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-549F-4961-B1C4-D1AC8E89C6BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-549F-4961-B1C4-D1AC8E89C6BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-549F-4961-B1C4-D1AC8E89C6BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sensitivity Analysis'!$B$1:$O$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Sensitivity Analysis'!$C$1:$C$2,'Sensitivity Analysis'!$H$1:$H$2,'Sensitivity Analysis'!$M$1:$M$2)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl/>
+                <c:lvl/>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sensitivity Analysis'!$B$3:$O$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Sensitivity Analysis'!$C$3,'Sensitivity Analysis'!$H$3,'Sensitivity Analysis'!$M$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18172432.187790003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-37354081.556383103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-65446979.157139212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-549F-4961-B1C4-D1AC8E89C6BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1650373743"/>
+        <c:axId val="1650372303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1650373743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650372303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1650372303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Statewide NPV (Million $USD)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650373743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -6263,31 +6648,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6299,31 +6684,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>-0.25644554758051519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.91008797797014229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2185555403306376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-0.67297121239916624</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>-0.34507125302428571</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>-2.0641202906069717E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>-0.26086319522180595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>-0.1983122083721289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6366,31 +6751,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6402,31 +6787,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0.25644554758051558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1115227297883858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17059777564628933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.18176071264026694</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.34507125302428582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>2.0641202906071764E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1</c:v>
+                  <c:v>0.26086319522180607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1</c:v>
+                  <c:v>0.19831220837212912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6494,31 +6879,31 @@
                     <c:strCache>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="6">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="8">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6941,31 +7326,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6977,31 +7362,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>-0.69608071502790447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.26417047341954902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.35056311430014137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.44212867423892088</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-0.18743090665851936</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>-0.13810286949033479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>-0.26956557386700836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>-2.9580535920801992E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>-6.368825002695773E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7044,31 +7429,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7080,31 +7465,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0.69608071502790347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32261694576965277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9078836002019399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37788818592920403</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5.0279613104531433E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.13810319378581401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.26956557386700242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2.9580535920801392E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>6.3688250026957521E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7172,31 +7557,31 @@
                     <c:strCache>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="6">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="8">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7624,31 +8009,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7660,31 +8045,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>-0.52113364050373823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.2949217363755587E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.18876539193423697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27300557501161227</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-5.4822330880680031E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>-7.7431564062913905E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>-0.2045188858321591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>-1.2335426460520089E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>-3.4818168153162722E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7727,31 +8112,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7763,31 +8148,31 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0.52113363543507707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10127610428548384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6427154870792838E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23333836392151286</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.4564623408473244E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>7.7728834356146637E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.20451888583215591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.2335426460519747E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>3.4818168153162493E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7855,31 +8240,31 @@
                     <c:strCache>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="6">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="4">
+                      <c:pt idx="8">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -8250,31 +8635,31 @@
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8286,31 +8671,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
+                  <c:v>-0.25644554758051519</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.91008797797014229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2185555403306376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>-0.67297121239916624</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1</c:v>
+                  <c:v>-0.34507125302428571</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1</c:v>
+                  <c:v>-2.0641202906069717E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1</c:v>
+                  <c:v>-0.26086319522180595</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1</c:v>
+                  <c:v>-0.1983122083721289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,31 +8739,31 @@
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8390,31 +8775,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
+                  <c:v>0.25644554758051558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1115227297883858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17059777564628933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.18176071264026694</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1</c:v>
+                  <c:v>0.34507125302428582</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1</c:v>
+                  <c:v>2.0641202906071764E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1</c:v>
+                  <c:v>0.26086319522180607</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1</c:v>
+                  <c:v>0.19831220837212912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8455,31 +8840,31 @@
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8491,31 +8876,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="1">
+                  <c:v>-0.69608071502790447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.26417047341954902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.35056311430014137</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.44212867423892088</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-0.18743090665851936</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>-0.13810286949033479</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>-0.26956557386700836</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>-2.9580535920801992E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>-6.368825002695773E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8556,31 +8941,31 @@
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8592,31 +8977,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="1">
+                  <c:v>0.69608071502790347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32261694576965277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9078836002019399E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.37788818592920403</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>5.0279613104531433E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0.13810319378581401</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0.26956557386700242</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2.9580535920801392E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>6.3688250026957521E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8659,31 +9044,31 @@
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8695,31 +9080,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="2">
+                  <c:v>-0.52113364050373823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.2949217363755587E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.18876539193423697</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.27300557501161227</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>-5.4822330880680031E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>-7.7431564062913905E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>-0.2045188858321591</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>-1.2335426460520089E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>-3.4818168153162722E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8762,31 +9147,31 @@
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>Interest Rate</c:v>
+                  <c:v>CAPEX</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Time Horizon</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Fertilizer Price</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Energy Content</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Interest Rate</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>N content</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
+                  <c:v>OPEX</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>P Content</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
                   <c:v>K Content</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Energy Content</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>OPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>CAPEX Ratio</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Fertilizer Price</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8798,31 +9183,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="2">
+                  <c:v>0.52113363543507707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10127610428548384</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6427154870792838E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23333836392151286</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1.4564623408473244E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>7.7728834356146637E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>0.20451888583215591</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>1.2335426460519747E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>3.4818168153162493E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8890,31 +9275,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9013,31 +9398,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9134,31 +9519,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9176,31 +9561,31 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="35"/>
                       <c:pt idx="0">
-                        <c:v>-15532557.946518308</c:v>
+                        <c:v>-0.51289109516103071</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0</c:v>
+                        <c:v>-2.0216107077585281</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0</c:v>
+                        <c:v>-1.3891533159769269</c:v>
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0</c:v>
+                        <c:v>-0.85473192503943318</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0</c:v>
+                        <c:v>-0.69014250604857152</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0</c:v>
+                        <c:v>-4.128240581214148E-3</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>0</c:v>
+                        <c:v>-0.52172639044361202</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>0</c:v>
+                        <c:v>-0.39662441674425802</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9255,31 +9640,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9378,31 +9763,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9501,31 +9886,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9543,31 +9928,31 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="35"/>
                       <c:pt idx="1">
-                        <c:v>-8879458.1420392171</c:v>
+                        <c:v>1.3921614300558081</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0</c:v>
+                        <c:v>0.58678741918920174</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0</c:v>
+                        <c:v>0.39964195030216076</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0</c:v>
+                        <c:v>0.82001686016812492</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0</c:v>
+                        <c:v>0.2377105197630508</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0</c:v>
+                        <c:v>0.27620606327614877</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>0</c:v>
+                        <c:v>0.53913114773401072</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>0</c:v>
+                        <c:v>5.916107184160338E-2</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>0</c:v>
+                        <c:v>0.12737650005391524</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9624,31 +10009,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9748,31 +10133,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9872,31 +10257,31 @@
                     <c:strCache>
                       <c:ptCount val="33"/>
                       <c:pt idx="0">
-                        <c:v>Interest Rate</c:v>
+                        <c:v>CAPEX</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Time Horizon</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>Fertilizer Price</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Energy Content</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>Interest Rate</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>N content</c:v>
                       </c:pt>
-                      <c:pt idx="12">
+                      <c:pt idx="24">
+                        <c:v>OPEX</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
                         <c:v>P Content</c:v>
                       </c:pt>
-                      <c:pt idx="16">
+                      <c:pt idx="32">
                         <c:v>K Content</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>Energy Content</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>OPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>CAPEX Ratio</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>Fertilizer Price</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -9914,31 +10299,31 @@
                       <c:formatCode>0%</c:formatCode>
                       <c:ptCount val="35"/>
                       <c:pt idx="2">
-                        <c:v>-4541166.5511395857</c:v>
+                        <c:v>1.0422672759388152</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0</c:v>
+                        <c:v>0.18422532164923941</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0</c:v>
+                        <c:v>0.21519254680502981</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0</c:v>
+                        <c:v>0.50634393893312513</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0</c:v>
+                        <c:v>6.9386954289153271E-2</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0</c:v>
+                        <c:v>0.15516039841906054</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>0</c:v>
+                        <c:v>0.40903777166431499</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>0</c:v>
+                        <c:v>2.4670852921039835E-2</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>0</c:v>
+                        <c:v>6.9636336306325208E-2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -9986,9 +10371,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -10005,8 +10390,7 @@
         <c:axId val="1191960704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
-          <c:min val="-1.1000000000000001"/>
+          <c:min val="-1.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -10031,27 +10415,36 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Percentage change</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t> from base case</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -10076,16 +10469,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -10115,9 +10508,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -10126,7 +10519,6 @@
         <c:crossAx val="1191960224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.55000000000000004"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10142,8 +10534,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15761649463693242"/>
-          <c:y val="0.35483186842911257"/>
+          <c:x val="0.15433238948579706"/>
+          <c:y val="0.72241740245169295"/>
           <c:w val="0.29796459761649463"/>
           <c:h val="0.13520885278580891"/>
         </c:manualLayout>
@@ -10168,9 +10560,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -10215,6 +10607,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11090,6 +11522,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -15487,7 +16422,7 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
@@ -15515,6 +16450,188 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>350921</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>140368</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Group 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D091FC12-8DEB-6898-16EC-F187033D92BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18067421" y="8194221"/>
+          <a:ext cx="1732547" cy="2644549"/>
+          <a:chOff x="18067421" y="8194221"/>
+          <a:chExt cx="1732547" cy="2644549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="9" name="Group 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D236CEEC-9D22-FBE5-31A4-6E89F2039DAB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="18067421" y="8194221"/>
+            <a:ext cx="1732547" cy="2644549"/>
+            <a:chOff x="18054888" y="8112292"/>
+            <a:chExt cx="1729539" cy="2616618"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D864CAE6-D451-FFBC-92F8-31429C804E80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="18054888" y="8112292"/>
+            <a:ext cx="1727284" cy="2616618"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="Straight Connector 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4E8FE2-DC86-0C73-3292-5B48B73828E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="18483803" y="8852587"/>
+              <a:ext cx="1300624" cy="3356"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="TextBox 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{371D0F5E-EA26-E5F2-27B5-838AFA58FA14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18560143" y="8205107"/>
+            <a:ext cx="1175657" cy="198665"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Base</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> NPV</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18312,10 +19429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9587F2EF-0B7E-4E84-89A1-B52C1FE909CB}">
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="Q43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AB51" sqref="AB51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18331,9 +19448,10 @@
     <col min="12" max="12" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -18343,1020 +19461,1218 @@
       <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
       </c>
       <c r="T2" t="s">
         <v>26</v>
       </c>
       <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" t="s">
-        <v>27</v>
+      <c r="W2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>5942908.4661313314</v>
+        <v>13512192.864522416</v>
       </c>
       <c r="C3">
         <v>18172432.187790003</v>
       </c>
       <c r="D3">
-        <v>21475466.412649639</v>
+        <v>22832671.511057597</v>
       </c>
       <c r="E3">
-        <f>B3-D3</f>
-        <v>-15532557.946518308</v>
+        <f>(B3-D3)/C3</f>
+        <v>-0.51289109516103071</v>
       </c>
       <c r="G3">
-        <v>-44355390.929892264</v>
+        <v>-63355537.35536091</v>
       </c>
       <c r="H3">
         <v>-37354081.556383103</v>
       </c>
       <c r="I3">
-        <v>-35475932.787853047</v>
+        <v>-11352625.757405329</v>
       </c>
       <c r="J3">
-        <f>G3-I3</f>
-        <v>-8879458.1420392171</v>
+        <f>(G3-I3)/H3</f>
+        <v>1.3921614300558081</v>
       </c>
       <c r="L3">
-        <v>-69034935.103632867</v>
+        <v>-99553601.665271446</v>
       </c>
       <c r="M3">
         <v>-65446979.157139212</v>
       </c>
       <c r="N3">
-        <v>-64493768.552493282</v>
+        <v>-31340356.98073554</v>
       </c>
       <c r="O3">
-        <f>L3-N3</f>
-        <v>-4541166.5511395857</v>
-      </c>
-      <c r="Q3" s="2">
+        <f>(L3-N3)/M3</f>
+        <v>1.0422672759388152</v>
+      </c>
+      <c r="P3">
+        <f>-E3+J3+O3</f>
+        <v>2.9473198011556541</v>
+      </c>
+      <c r="R3" s="2">
         <v>0.18</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>0.05</v>
-      </c>
-      <c r="T3" t="s">
-        <v>43</v>
       </c>
       <c r="U3" t="s">
         <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
+      <c r="B4">
+        <v>1633920.1232046713</v>
+      </c>
       <c r="C4">
-        <f>C3</f>
         <v>18172432.187790003</v>
       </c>
+      <c r="D4">
+        <v>38371503.620056674</v>
+      </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">B4-D4</f>
+        <f>(B4-D4)/C4</f>
+        <v>-2.0216107077585281</v>
+      </c>
+      <c r="G4">
+        <v>-47221926.965285271</v>
+      </c>
+      <c r="H4">
+        <v>-37354081.556383103</v>
+      </c>
+      <c r="I4">
+        <v>-25303021.852632269</v>
+      </c>
+      <c r="J4">
+        <f>(G4-I4)/H4</f>
+        <v>0.58678741918920174</v>
+      </c>
+      <c r="L4">
+        <v>-70875754.857045934</v>
+      </c>
+      <c r="M4">
+        <v>-65446979.157139212</v>
+      </c>
+      <c r="N4">
+        <v>-58818764.070850894</v>
+      </c>
+      <c r="O4">
+        <f>(L4-N4)/M4</f>
+        <v>0.18422532164923941</v>
+      </c>
+      <c r="P4">
+        <f>-E4+J4+O4</f>
+        <v>2.7926234485969692</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>-3971685.7359243156</v>
+      </c>
+      <c r="C5">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="D5">
+        <v>21272608.697110008</v>
+      </c>
+      <c r="E5">
+        <f>(B5-D5)/C5</f>
+        <v>-1.3891533159769269</v>
+      </c>
+      <c r="G5">
+        <v>-50449044.718610235</v>
+      </c>
+      <c r="H5">
+        <v>-37354081.556383103</v>
+      </c>
+      <c r="I5">
+        <v>-35520786.713671319</v>
+      </c>
+      <c r="J5">
+        <f>(G5-I5)/H5</f>
+        <v>0.39964195030216076</v>
+      </c>
+      <c r="L5">
+        <v>-77801103.828648433</v>
+      </c>
+      <c r="M5">
+        <v>-65446979.157139212</v>
+      </c>
+      <c r="N5">
+        <v>-63717401.703127943</v>
+      </c>
+      <c r="O5">
+        <f>(L5-N5)/M5</f>
+        <v>0.21519254680502981</v>
+      </c>
+      <c r="P5">
+        <f>-E5+J5+O5</f>
+        <v>2.0039878130841173</v>
+      </c>
+      <c r="R5">
+        <v>0.67</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <f>2-R5</f>
+        <v>1.33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="C6">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="D6">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="E6">
+        <f>(B6-D6)/C6</f>
         <v>0</v>
       </c>
-      <c r="H4">
-        <f>H3</f>
+      <c r="G6">
+        <v>-53869392.112319291</v>
+      </c>
+      <c r="H6">
         <v>-37354081.556383103</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J11" si="1">G4-I4</f>
+      <c r="I6">
+        <v>-23238415.439989954</v>
+      </c>
+      <c r="J6">
+        <f>(G6-I6)/H6</f>
+        <v>0.82001686016812492</v>
+      </c>
+      <c r="L6">
+        <v>-83314369.334707007</v>
+      </c>
+      <c r="M6">
+        <v>-65446979.157139212</v>
+      </c>
+      <c r="N6">
+        <v>-50175688.117006995</v>
+      </c>
+      <c r="O6">
+        <f>(L6-N6)/M6</f>
+        <v>0.50634393893312513</v>
+      </c>
+      <c r="P6">
+        <f>-E6+J6+O6</f>
+        <v>1.32636079910125</v>
+      </c>
+      <c r="R6">
+        <v>0.67</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ref="T6:T7" si="0">2-R6</f>
+        <v>1.33</v>
+      </c>
+      <c r="U6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>5942908.4661313314</v>
+      </c>
+      <c r="C7">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="D7">
+        <v>21475466.412649639</v>
+      </c>
+      <c r="E7">
+        <f>(B7-D7)/C7</f>
+        <v>-0.85473192503943318</v>
+      </c>
+      <c r="G7">
+        <v>-44355390.929892264</v>
+      </c>
+      <c r="H7">
+        <v>-37354081.556383103</v>
+      </c>
+      <c r="I7">
+        <v>-35475932.787853047</v>
+      </c>
+      <c r="J7">
+        <f>(G7-I7)/H7</f>
+        <v>0.2377105197630508</v>
+      </c>
+      <c r="L7">
+        <v>-69034935.103632867</v>
+      </c>
+      <c r="M7">
+        <v>-65446979.157139212</v>
+      </c>
+      <c r="N7">
+        <v>-64493768.552493282</v>
+      </c>
+      <c r="O7">
+        <f>(L7-N7)/M7</f>
+        <v>6.9386954289153271E-2</v>
+      </c>
+      <c r="P7">
+        <f>-E7+J7+O7</f>
+        <v>1.1618293990916371</v>
+      </c>
+      <c r="R7">
+        <v>0.67</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>11901648.242250444</v>
+      </c>
+      <c r="C8">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="D8">
+        <v>24443216.133329563</v>
+      </c>
+      <c r="E8">
+        <f>(B8-D8)/C8</f>
+        <v>-0.69014250604857152</v>
+      </c>
+      <c r="G8">
+        <v>-42512787.406495601</v>
+      </c>
+      <c r="H8">
+        <v>-37354081.556383103</v>
+      </c>
+      <c r="I8">
+        <v>-32195363.592510827</v>
+      </c>
+      <c r="J8">
+        <f>(G8-I8)/H8</f>
+        <v>0.27620606327614877</v>
+      </c>
+      <c r="L8">
+        <v>-70514641.116469428</v>
+      </c>
+      <c r="M8">
+        <v>-65446979.157139212</v>
+      </c>
+      <c r="N8">
+        <v>-60359861.755123757</v>
+      </c>
+      <c r="O8">
+        <f>(L8-N8)/M8</f>
+        <v>0.15516039841906054</v>
+      </c>
+      <c r="P8">
+        <f>-E8+J8+O8</f>
+        <v>1.1215089677437808</v>
+      </c>
+      <c r="R8">
+        <v>0.92</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f>2-R8</f>
+        <v>1.08</v>
+      </c>
+      <c r="U8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>18134922.101781506</v>
+      </c>
+      <c r="C9">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="D9">
+        <v>18209942.273798503</v>
+      </c>
+      <c r="E9">
+        <f>(B9-D9)/C9</f>
+        <v>-4.128240581214148E-3</v>
+      </c>
+      <c r="G9">
+        <v>-47423455.987404548</v>
+      </c>
+      <c r="H9">
+        <v>-37354081.556383103</v>
+      </c>
+      <c r="I9">
+        <v>-27284707.125361882</v>
+      </c>
+      <c r="J9">
+        <f>(G9-I9)/H9</f>
+        <v>0.53913114773401072</v>
+      </c>
+      <c r="L9">
+        <v>-78832122.415437862</v>
+      </c>
+      <c r="M9">
+        <v>-65446979.157139212</v>
+      </c>
+      <c r="N9">
+        <v>-52061835.89884077</v>
+      </c>
+      <c r="O9">
+        <f>(L9-N9)/M9</f>
+        <v>0.40903777166431499</v>
+      </c>
+      <c r="P9">
+        <f>-E9+J9+O9</f>
+        <v>0.9522971599795399</v>
+      </c>
+      <c r="R9" s="6">
+        <f>S9*R10</f>
+        <v>0.11424264705882352</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="T9" s="6">
+        <f>S9*T10</f>
+        <v>6.5757352941176475E-2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>13431913.462331509</v>
+      </c>
+      <c r="C10">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="D10">
+        <v>22912950.913248498</v>
+      </c>
+      <c r="E10">
+        <f>(B10-D10)/C10</f>
+        <v>-0.52172639044361202</v>
+      </c>
+      <c r="G10">
+        <v>-38459035.307650261</v>
+      </c>
+      <c r="H10">
+        <v>-37354081.556383103</v>
+      </c>
+      <c r="I10">
+        <v>-36249127.805115968</v>
+      </c>
+      <c r="J10">
+        <f>(G10-I10)/H10</f>
+        <v>5.916107184160338E-2</v>
+      </c>
+      <c r="L10">
+        <v>-66254295.555595294</v>
+      </c>
+      <c r="M10">
+        <v>-65446979.157139212</v>
+      </c>
+      <c r="N10">
+        <v>-64639662.758683152</v>
+      </c>
+      <c r="O10">
+        <f>(L10-N10)/M10</f>
+        <v>2.4670852921039835E-2</v>
+      </c>
+      <c r="P10">
+        <f>-E10+J10+O10</f>
+        <v>0.60555831520625525</v>
+      </c>
+      <c r="R10" s="7">
+        <f>2-T10</f>
+        <v>1.2693627450980391</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
+        <f>596.2/816</f>
+        <v>0.73063725490196085</v>
+      </c>
+      <c r="U10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>14568617.029136609</v>
+      </c>
+      <c r="C11">
+        <v>18172432.187790003</v>
+      </c>
+      <c r="D11">
+        <v>21776247.3464434</v>
+      </c>
+      <c r="E11">
+        <f>(B11-D11)/C11</f>
+        <v>-0.39662441674425802</v>
+      </c>
+      <c r="G11">
+        <v>-39733097.6420734</v>
+      </c>
+      <c r="H11">
+        <v>-37354081.556383103</v>
+      </c>
+      <c r="I11">
+        <v>-34975065.470692813</v>
+      </c>
+      <c r="J11">
+        <f>(G11-I11)/H11</f>
+        <v>0.12737650005391524</v>
+      </c>
+      <c r="L11">
+        <v>-67725723.082549021</v>
+      </c>
+      <c r="M11">
+        <v>-65446979.157139212</v>
+      </c>
+      <c r="N11">
+        <v>-63168235.231729418</v>
+      </c>
+      <c r="O11">
+        <f>(L11-N11)/M11</f>
+        <v>6.9636336306325208E-2</v>
+      </c>
+      <c r="P11">
+        <f>-E11+J11+O11</f>
+        <v>0.59363725310449844</v>
+      </c>
+      <c r="R11" s="7">
+        <f>75/150</f>
+        <v>0.5</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11" s="7">
+        <f>160/150</f>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="U11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <f>A3</f>
+        <v>CAPEX</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" ref="B15:B22" si="1">(B3-C3)/C3</f>
+        <v>-0.25644554758051519</v>
+      </c>
+      <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <f>M3</f>
-        <v>-65446979.157139212</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O11" si="2">L4-N4</f>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:D22" si="2">(D3-C3)/C3</f>
+        <v>0.25644554758051558</v>
+      </c>
+      <c r="E15" s="5">
+        <f>E3</f>
+        <v>-0.51289109516103071</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:G22" si="3">-(G3-H3)/H3</f>
+        <v>-0.69608071502790447</v>
+      </c>
+      <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>20</v>
-      </c>
-      <c r="T4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" t="s">
-        <v>40</v>
+      <c r="I15" s="4">
+        <f t="shared" ref="I15:I22" si="4">-(I3-H3)/H3</f>
+        <v>0.69608071502790347</v>
+      </c>
+      <c r="J15" s="5">
+        <f>J3</f>
+        <v>1.3921614300558081</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
+        <f t="shared" ref="L15:L22" si="5">-(L3-M3)/M3</f>
+        <v>-0.52113364050373823</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" ref="N15:N22" si="6">-(N3-M3)/M3</f>
+        <v>0.52113363543507707</v>
+      </c>
+      <c r="O15" s="5">
+        <f>O3</f>
+        <v>1.0422672759388152</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P4:P23" si="7">E15+J15+O15</f>
+        <v>1.9215376108335924</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:C11" si="3">C4</f>
-        <v>18172432.187790003</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16" t="str">
+        <f t="shared" ref="A16:A23" si="8">A4</f>
+        <v>Time Horizon</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.91008797797014229</v>
+      </c>
+      <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H11" si="4">H4</f>
-        <v>-37354081.556383103</v>
-      </c>
-      <c r="J5">
+      <c r="D16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1115227297883858</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:E23" si="9">E4</f>
+        <v>-2.0216107077585281</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.26417047341954902</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.32261694576965277</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" ref="J16:J23" si="10">J4</f>
+        <v>0.58678741918920174</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
+        <f t="shared" si="5"/>
+        <v>-8.2949217363755587E-2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f t="shared" si="6"/>
+        <v>0.10127610428548384</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" ref="O16:O23" si="11">O4</f>
+        <v>0.18422532164923941</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>-1.2505979669200871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" t="str">
+        <f t="shared" si="8"/>
+        <v>Fertilizer Price</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.2185555403306376</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="2"/>
+        <v>0.17059777564628933</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="9"/>
+        <v>-1.3891533159769269</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.35056311430014137</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="4"/>
+        <v>4.9078836002019399E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="10"/>
+        <v>0.39964195030216076</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.18876539193423697</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="6"/>
+        <v>2.6427154870792838E-2</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="11"/>
+        <v>0.21519254680502981</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>-0.7743188188697363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A18" t="str">
+        <f t="shared" si="8"/>
+        <v>Energy Content</v>
+      </c>
+      <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5">
-        <f t="shared" ref="M5:M11" si="5">M4</f>
-        <v>-65446979.157139212</v>
-      </c>
-      <c r="O5">
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>0.67</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f>2-Q5</f>
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="3"/>
-        <v>18172432.187790003</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>-37354081.556383103</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="5"/>
-        <v>-65446979.157139212</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0.67</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ref="S6:S7" si="6">2-Q6</f>
-        <v>1.33</v>
-      </c>
-      <c r="T6" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="3"/>
-        <v>18172432.187790003</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="4"/>
-        <v>-37354081.556383103</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="5"/>
-        <v>-65446979.157139212</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0.67</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="6"/>
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="3"/>
-        <v>18172432.187790003</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="4"/>
-        <v>-37354081.556383103</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="5"/>
-        <v>-65446979.157139212</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0.92</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <f>2-Q8</f>
-        <v>1.08</v>
-      </c>
-      <c r="T8" t="s">
-        <v>47</v>
-      </c>
-      <c r="V8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="3"/>
-        <v>18172432.187790003</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>-37354081.556383103</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="5"/>
-        <v>-65446979.157139212</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <f>R9*Q10</f>
-        <v>0.11424264705882352</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="S9" s="6">
-        <f>R9*S10</f>
-        <v>6.5757352941176475E-2</v>
-      </c>
-      <c r="T9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="3"/>
-        <v>18172432.187790003</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>-37354081.556383103</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="5"/>
-        <v>-65446979.157139212</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <f>2-S10</f>
-        <v>1.2693627450980391</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="7">
-        <f>596.2/816</f>
-        <v>0.73063725490196085</v>
-      </c>
-      <c r="T10" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>18172432.187790003</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>-37354081.556383103</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
-        <v>-65446979.157139212</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <f>75/150</f>
-        <v>0.5</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11" s="7">
-        <f>160/150</f>
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="T11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" ref="B15:B22" si="7">(B3-C3)/C3</f>
-        <v>-0.67297121239916624</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" ref="D15:D22" si="8">(D3-C3)/C3</f>
-        <v>0.18176071264026694</v>
-      </c>
-      <c r="E15" s="5">
-        <f>E3</f>
-        <v>-15532557.946518308</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <f t="shared" ref="G15:G22" si="9">-(G3-H3)/H3</f>
-        <v>-0.18743090665851936</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" ref="I15:I22" si="10">-(I3-H3)/H3</f>
-        <v>5.0279613104531433E-2</v>
-      </c>
-      <c r="J15" s="5">
-        <f>J3</f>
-        <v>-8879458.1420392171</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
-        <f t="shared" ref="L15:L22" si="11">-(L3-M3)/M3</f>
-        <v>-5.4822330880680031E-2</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" ref="N15:N22" si="12">-(N3-M3)/M3</f>
-        <v>1.4564623408473244E-2</v>
-      </c>
-      <c r="O15" s="5">
-        <f>O3</f>
-        <v>-4541166.5511395857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" ref="E16:E23" si="13">E4</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
+      <c r="E18" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" ref="J16:J23" si="14">J4</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="5">
-        <f t="shared" ref="O16:O23" si="15">O4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-0.44212867423892088</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f t="shared" si="4"/>
+        <v>0.37788818592920403</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.82001686016812492</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>-0.27300557501161227</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.23333836392151286</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.50634393893312513</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>1.32636079910125</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>22</v>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" t="str">
+        <f t="shared" si="8"/>
+        <v>Interest Rate</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>-0.67297121239916624</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="8"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>0.18176071264026694</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.85473192503943318</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-0.18743090665851936</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <f t="shared" si="4"/>
+        <v>5.0279613104531433E-2</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.2377105197630508</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>-5.4822330880680031E-2</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1.4564623408473244E-2</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>6.9386954289153271E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>-0.54763445098722907</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>23</v>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" t="str">
+        <f t="shared" si="8"/>
+        <v>N content</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>-0.34507125302428571</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="8"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>0.34507125302428582</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.69014250604857152</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-0.13810286949033479</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" s="4">
+        <f t="shared" si="4"/>
+        <v>0.13810319378581401</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.27620606327614877</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>-7.7431564062913905E-2</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>7.7728834356146637E-2</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.15516039841906054</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>-0.25877604435336221</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>24</v>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" t="str">
+        <f t="shared" si="8"/>
+        <v>OPEX</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>-2.0641202906069717E-3</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="8"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>2.0641202906071764E-3</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-4.128240581214148E-3</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-0.26956557386700836</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" s="4">
+        <f t="shared" si="4"/>
+        <v>0.26956557386700242</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.53913114773401072</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>-0.2045188858321591</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.20451888583215591</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.40903777166431499</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>0.94404067881711151</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>29</v>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" t="str">
+        <f t="shared" si="8"/>
+        <v>P Content</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="7"/>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>-0.26086319522180595</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="8"/>
-        <v>-1</v>
+        <f t="shared" si="2"/>
+        <v>0.26086319522180607</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.52172639044361202</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>-2.9580535920801992E-2</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" s="4">
+        <f t="shared" si="4"/>
+        <v>2.9580535920801392E-2</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5.916107184160338E-2</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>-1.2335426460520089E-2</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1.2335426460519747E-2</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2.4670852921039835E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>-0.43789446568096885</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>28</v>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" t="str">
+        <f t="shared" si="8"/>
+        <v>K Content</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" ref="B23" si="16">(B11-C11)/C11</f>
-        <v>-1</v>
+        <f t="shared" ref="B23" si="12">(B11-C11)/C11</f>
+        <v>-0.1983122083721289</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23" si="17">(D11-C11)/C11</f>
-        <v>-1</v>
+        <f t="shared" ref="D23" si="13">(D11-C11)/C11</f>
+        <v>0.19831220837212912</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.39662441674425802</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <f t="shared" ref="G23" si="18">-(G11-H11)/H11</f>
-        <v>1</v>
+        <f t="shared" ref="G23" si="14">-(G11-H11)/H11</f>
+        <v>-6.368825002695773E-2</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23" si="19">-(I11-H11)/H11</f>
-        <v>1</v>
+        <f t="shared" ref="I23" si="15">-(I11-H11)/H11</f>
+        <v>6.3688250026957521E-2</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>0.12737650005391524</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4">
-        <f t="shared" ref="L23" si="20">-(L11-M11)/M11</f>
-        <v>1</v>
+        <f t="shared" ref="L23" si="16">-(L11-M11)/M11</f>
+        <v>-3.4818168153162722E-2</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" ref="N23" si="21">-(N11-M11)/M11</f>
-        <v>1</v>
+        <f t="shared" ref="N23" si="17">-(N11-M11)/M11</f>
+        <v>3.4818168153162493E-2</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>6.9636336306325208E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>-0.19961158038401755</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -19376,85 +20692,85 @@
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" ref="B43:O43" si="22">B14</f>
+        <f t="shared" ref="B43:O43" si="18">B14</f>
         <v>NPV Max Worst</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>Level</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>NPV Max Best</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>Range</v>
       </c>
       <c r="F43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>Tradeoff Worst</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>Level</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>Tradeoff Best</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>Range</v>
       </c>
       <c r="K43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>GWP Min Worst</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>Level</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>GWP Min Best</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>Range</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="str">
         <f>A15</f>
-        <v>Interest Rate</v>
+        <v>CAPEX</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:K44" si="23">B15</f>
-        <v>-0.67297121239916624</v>
+        <f t="shared" ref="B44:K44" si="19">B15</f>
+        <v>-0.25644554758051519</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="23"/>
-        <v>0.18176071264026694</v>
+        <f t="shared" si="19"/>
+        <v>0.25644554758051558</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="23"/>
-        <v>-15532557.946518308</v>
+        <f t="shared" si="19"/>
+        <v>-0.51289109516103071</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G44" s="3"/>
@@ -19462,7 +20778,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L44" s="3"/>
@@ -19477,12 +20793,12 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3">
-        <f t="shared" ref="F45:K45" si="24">F16</f>
+        <f t="shared" ref="F45:K45" si="20">F16</f>
         <v>0</v>
       </c>
       <c r="G45" s="3">
         <f>G15</f>
-        <v>-0.18743090665851936</v>
+        <v>-0.69608071502790447</v>
       </c>
       <c r="H45" s="3">
         <f>H15</f>
@@ -19490,14 +20806,14 @@
       </c>
       <c r="I45" s="3">
         <f>I15</f>
-        <v>5.0279613104531433E-2</v>
+        <v>0.69608071502790347</v>
       </c>
       <c r="J45" s="3">
         <f>J15</f>
-        <v>-8879458.1420392171</v>
+        <v>1.3921614300558081</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L45" s="3"/>
@@ -19512,7 +20828,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3">
-        <f t="shared" ref="F46:K46" si="25">F17</f>
+        <f t="shared" ref="F46:K46" si="21">F17</f>
         <v>0</v>
       </c>
       <c r="G46" s="3"/>
@@ -19520,12 +20836,12 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L46" s="3">
         <f>L15</f>
-        <v>-5.4822330880680031E-2</v>
+        <v>-0.52113364050373823</v>
       </c>
       <c r="M46" s="3">
         <f>M15</f>
@@ -19533,11 +20849,11 @@
       </c>
       <c r="N46" s="3">
         <f>N15</f>
-        <v>1.4564623408473244E-2</v>
+        <v>0.52113363543507707</v>
       </c>
       <c r="O46" s="3">
         <f>O15</f>
-        <v>-4541166.5511395857</v>
+        <v>1.0422672759388152</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
@@ -19547,7 +20863,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:K47" si="26">F18</f>
+        <f t="shared" ref="F47:K47" si="22">F18</f>
         <v>0</v>
       </c>
       <c r="G47" s="3"/>
@@ -19555,7 +20871,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L47" s="3"/>
@@ -19570,7 +20886,7 @@
       </c>
       <c r="B48" s="3">
         <f>B16</f>
-        <v>-1</v>
+        <v>-0.91008797797014229</v>
       </c>
       <c r="C48" s="3">
         <f>C16</f>
@@ -19578,14 +20894,14 @@
       </c>
       <c r="D48" s="3">
         <f>D16</f>
-        <v>-1</v>
+        <v>1.1115227297883858</v>
       </c>
       <c r="E48" s="3">
         <f>E16</f>
-        <v>0</v>
+        <v>-2.0216107077585281</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" ref="F48:K48" si="27">F19</f>
+        <f t="shared" ref="F48:K48" si="23">F19</f>
         <v>0</v>
       </c>
       <c r="G48" s="3"/>
@@ -19593,7 +20909,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L48" s="3"/>
@@ -19608,12 +20924,12 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
-        <f t="shared" ref="F49:K49" si="28">F20</f>
+        <f t="shared" ref="F49:K49" si="24">F20</f>
         <v>0</v>
       </c>
       <c r="G49" s="3">
         <f>G16</f>
-        <v>1</v>
+        <v>-0.26417047341954902</v>
       </c>
       <c r="H49" s="3">
         <f>H16</f>
@@ -19621,14 +20937,14 @@
       </c>
       <c r="I49" s="3">
         <f>I16</f>
-        <v>1</v>
+        <v>0.32261694576965277</v>
       </c>
       <c r="J49" s="3">
         <f>J16</f>
-        <v>0</v>
+        <v>0.58678741918920174</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L49" s="3"/>
@@ -19643,7 +20959,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3">
-        <f t="shared" ref="F50:K50" si="29">F21</f>
+        <f t="shared" ref="F50:K50" si="25">F21</f>
         <v>0</v>
       </c>
       <c r="G50" s="3"/>
@@ -19651,12 +20967,12 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L50" s="3">
         <f>L16</f>
-        <v>1</v>
+        <v>-8.2949217363755587E-2</v>
       </c>
       <c r="M50" s="3">
         <f>M16</f>
@@ -19664,11 +20980,11 @@
       </c>
       <c r="N50" s="3">
         <f>N16</f>
-        <v>1</v>
+        <v>0.10127610428548384</v>
       </c>
       <c r="O50" s="3">
         <f>O16</f>
-        <v>0</v>
+        <v>0.18422532164923941</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
@@ -19678,7 +20994,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3">
-        <f t="shared" ref="F51:K51" si="30">F22</f>
+        <f t="shared" ref="F51:K51" si="26">F22</f>
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
@@ -19686,7 +21002,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L51" s="3"/>
@@ -19697,11 +21013,11 @@
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="str">
         <f>A17</f>
-        <v>N content</v>
+        <v>Fertilizer Price</v>
       </c>
       <c r="B52" s="3">
         <f>B17</f>
-        <v>-1</v>
+        <v>-1.2185555403306376</v>
       </c>
       <c r="C52" s="3">
         <f>C17</f>
@@ -19709,14 +21025,14 @@
       </c>
       <c r="D52" s="3">
         <f>D17</f>
-        <v>-1</v>
+        <v>0.17059777564628933</v>
       </c>
       <c r="E52" s="3">
         <f>E17</f>
-        <v>0</v>
+        <v>-1.3891533159769269</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:K52" si="31">F23</f>
+        <f t="shared" ref="F52:K52" si="27">F23</f>
         <v>0</v>
       </c>
       <c r="G52" s="3"/>
@@ -19724,7 +21040,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L52" s="3"/>
@@ -19741,7 +21057,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3">
         <f>G17</f>
-        <v>1</v>
+        <v>-0.35056311430014137</v>
       </c>
       <c r="H53" s="3">
         <f>H17</f>
@@ -19749,11 +21065,11 @@
       </c>
       <c r="I53" s="3">
         <f>I17</f>
-        <v>1</v>
+        <v>4.9078836002019399E-2</v>
       </c>
       <c r="J53" s="3">
         <f>J17</f>
-        <v>0</v>
+        <v>0.39964195030216076</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -19775,7 +21091,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3">
         <f>L17</f>
-        <v>1</v>
+        <v>-0.18876539193423697</v>
       </c>
       <c r="M54" s="3">
         <f>M17</f>
@@ -19783,11 +21099,11 @@
       </c>
       <c r="N54" s="3">
         <f>N17</f>
-        <v>1</v>
+        <v>2.6427154870792838E-2</v>
       </c>
       <c r="O54" s="3">
         <f>O17</f>
-        <v>0</v>
+        <v>0.21519254680502981</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
@@ -19810,11 +21126,11 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="str">
         <f>A18</f>
-        <v>P Content</v>
+        <v>Energy Content</v>
       </c>
       <c r="B56" s="3">
         <f>B18</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="3">
         <f>C18</f>
@@ -19822,7 +21138,7 @@
       </c>
       <c r="D56" s="3">
         <f>D18</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="3">
         <f>E18</f>
@@ -19848,7 +21164,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3">
         <f>G18</f>
-        <v>1</v>
+        <v>-0.44212867423892088</v>
       </c>
       <c r="H57" s="3">
         <f>H18</f>
@@ -19856,11 +21172,11 @@
       </c>
       <c r="I57" s="3">
         <f>I18</f>
-        <v>1</v>
+        <v>0.37788818592920403</v>
       </c>
       <c r="J57" s="3">
         <f>J18</f>
-        <v>0</v>
+        <v>0.82001686016812492</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -19882,7 +21198,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3">
         <f>L18</f>
-        <v>1</v>
+        <v>-0.27300557501161227</v>
       </c>
       <c r="M58" s="3">
         <f>M18</f>
@@ -19890,11 +21206,11 @@
       </c>
       <c r="N58" s="3">
         <f>N18</f>
-        <v>1</v>
+        <v>0.23333836392151286</v>
       </c>
       <c r="O58" s="3">
         <f>O18</f>
-        <v>0</v>
+        <v>0.50634393893312513</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
@@ -19917,11 +21233,11 @@
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="str">
         <f>A19</f>
-        <v>K Content</v>
+        <v>Interest Rate</v>
       </c>
       <c r="B60" s="3">
         <f>B19</f>
-        <v>-1</v>
+        <v>-0.67297121239916624</v>
       </c>
       <c r="C60" s="3">
         <f>C19</f>
@@ -19929,11 +21245,11 @@
       </c>
       <c r="D60" s="3">
         <f>D19</f>
-        <v>-1</v>
+        <v>0.18176071264026694</v>
       </c>
       <c r="E60" s="3">
         <f>E19</f>
-        <v>0</v>
+        <v>-0.85473192503943318</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -19955,7 +21271,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3">
         <f>G19</f>
-        <v>1</v>
+        <v>-0.18743090665851936</v>
       </c>
       <c r="H61" s="3">
         <f>H19</f>
@@ -19963,11 +21279,11 @@
       </c>
       <c r="I61" s="3">
         <f>I19</f>
-        <v>1</v>
+        <v>5.0279613104531433E-2</v>
       </c>
       <c r="J61" s="3">
         <f>J19</f>
-        <v>0</v>
+        <v>0.2377105197630508</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -19989,7 +21305,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3">
         <f>L19</f>
-        <v>1</v>
+        <v>-5.4822330880680031E-2</v>
       </c>
       <c r="M62" s="3">
         <f>M19</f>
@@ -19997,11 +21313,11 @@
       </c>
       <c r="N62" s="3">
         <f>N19</f>
-        <v>1</v>
+        <v>1.4564623408473244E-2</v>
       </c>
       <c r="O62" s="3">
         <f>O19</f>
-        <v>0</v>
+        <v>6.9386954289153271E-2</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
@@ -20024,11 +21340,11 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="str">
         <f>A20</f>
-        <v>Energy Content</v>
+        <v>N content</v>
       </c>
       <c r="B64" s="3">
         <f>B20</f>
-        <v>-1</v>
+        <v>-0.34507125302428571</v>
       </c>
       <c r="C64" s="3">
         <f>C20</f>
@@ -20036,11 +21352,11 @@
       </c>
       <c r="D64" s="3">
         <f>D20</f>
-        <v>-1</v>
+        <v>0.34507125302428582</v>
       </c>
       <c r="E64" s="3">
         <f>E20</f>
-        <v>0</v>
+        <v>-0.69014250604857152</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -20062,7 +21378,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3">
         <f>G20</f>
-        <v>1</v>
+        <v>-0.13810286949033479</v>
       </c>
       <c r="H65" s="3">
         <f>H20</f>
@@ -20070,11 +21386,11 @@
       </c>
       <c r="I65" s="3">
         <f>I20</f>
-        <v>1</v>
+        <v>0.13810319378581401</v>
       </c>
       <c r="J65" s="3">
         <f>J20</f>
-        <v>0</v>
+        <v>0.27620606327614877</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -20096,7 +21412,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3">
         <f>L20</f>
-        <v>1</v>
+        <v>-7.7431564062913905E-2</v>
       </c>
       <c r="M66" s="3">
         <f>M20</f>
@@ -20104,11 +21420,11 @@
       </c>
       <c r="N66" s="3">
         <f>N20</f>
-        <v>1</v>
+        <v>7.7728834356146637E-2</v>
       </c>
       <c r="O66" s="3">
         <f>O20</f>
-        <v>0</v>
+        <v>0.15516039841906054</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.45">
@@ -20131,11 +21447,11 @@
     <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="str">
         <f>A21</f>
-        <v>OPEX Ratio</v>
+        <v>OPEX</v>
       </c>
       <c r="B68" s="3">
         <f>B21</f>
-        <v>-1</v>
+        <v>-2.0641202906069717E-3</v>
       </c>
       <c r="C68" s="3">
         <f>C21</f>
@@ -20143,11 +21459,11 @@
       </c>
       <c r="D68" s="3">
         <f>D21</f>
-        <v>-1</v>
+        <v>2.0641202906071764E-3</v>
       </c>
       <c r="E68" s="3">
         <f>E21</f>
-        <v>0</v>
+        <v>-4.128240581214148E-3</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -20169,7 +21485,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3">
         <f>G21</f>
-        <v>1</v>
+        <v>-0.26956557386700836</v>
       </c>
       <c r="H69" s="3">
         <f>H21</f>
@@ -20177,11 +21493,11 @@
       </c>
       <c r="I69" s="3">
         <f>I21</f>
-        <v>1</v>
+        <v>0.26956557386700242</v>
       </c>
       <c r="J69" s="3">
         <f>J21</f>
-        <v>0</v>
+        <v>0.53913114773401072</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -20203,7 +21519,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3">
         <f>L21</f>
-        <v>1</v>
+        <v>-0.2045188858321591</v>
       </c>
       <c r="M70" s="3">
         <f>M21</f>
@@ -20211,11 +21527,11 @@
       </c>
       <c r="N70" s="3">
         <f>N21</f>
-        <v>1</v>
+        <v>0.20451888583215591</v>
       </c>
       <c r="O70" s="3">
         <f>O21</f>
-        <v>0</v>
+        <v>0.40903777166431499</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.45">
@@ -20238,11 +21554,11 @@
     <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="str">
         <f>A22</f>
-        <v>CAPEX Ratio</v>
+        <v>P Content</v>
       </c>
       <c r="B72" s="3">
         <f>B22</f>
-        <v>-1</v>
+        <v>-0.26086319522180595</v>
       </c>
       <c r="C72" s="3">
         <f>C22</f>
@@ -20250,11 +21566,11 @@
       </c>
       <c r="D72" s="3">
         <f>D22</f>
-        <v>-1</v>
+        <v>0.26086319522180607</v>
       </c>
       <c r="E72" s="3">
         <f>E22</f>
-        <v>0</v>
+        <v>-0.52172639044361202</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -20276,7 +21592,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3">
         <f>G22</f>
-        <v>1</v>
+        <v>-2.9580535920801992E-2</v>
       </c>
       <c r="H73" s="3">
         <f>H22</f>
@@ -20284,11 +21600,11 @@
       </c>
       <c r="I73" s="3">
         <f>I22</f>
-        <v>1</v>
+        <v>2.9580535920801392E-2</v>
       </c>
       <c r="J73" s="3">
         <f>J22</f>
-        <v>0</v>
+        <v>5.916107184160338E-2</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -20310,7 +21626,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3">
         <f>L22</f>
-        <v>1</v>
+        <v>-1.2335426460520089E-2</v>
       </c>
       <c r="M74" s="3">
         <f>M22</f>
@@ -20318,11 +21634,11 @@
       </c>
       <c r="N74" s="3">
         <f>N22</f>
-        <v>1</v>
+        <v>1.2335426460519747E-2</v>
       </c>
       <c r="O74" s="3">
         <f>O22</f>
-        <v>0</v>
+        <v>2.4670852921039835E-2</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.45">
@@ -20345,11 +21661,11 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="str">
         <f>A23</f>
-        <v>Fertilizer Price</v>
+        <v>K Content</v>
       </c>
       <c r="B76" s="3">
         <f>B23</f>
-        <v>-1</v>
+        <v>-0.1983122083721289</v>
       </c>
       <c r="C76" s="3">
         <f>C23</f>
@@ -20357,11 +21673,11 @@
       </c>
       <c r="D76" s="3">
         <f>D23</f>
-        <v>-1</v>
+        <v>0.19831220837212912</v>
       </c>
       <c r="E76" s="3">
         <f>E23</f>
-        <v>0</v>
+        <v>-0.39662441674425802</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -20382,7 +21698,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3">
         <f>G23</f>
-        <v>1</v>
+        <v>-6.368825002695773E-2</v>
       </c>
       <c r="H77" s="3">
         <f>H23</f>
@@ -20390,11 +21706,11 @@
       </c>
       <c r="I77" s="3">
         <f>I23</f>
-        <v>1</v>
+        <v>6.3688250026957521E-2</v>
       </c>
       <c r="J77" s="3">
         <f>J23</f>
-        <v>0</v>
+        <v>0.12737650005391524</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -20416,7 +21732,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3">
         <f>L23</f>
-        <v>1</v>
+        <v>-3.4818168153162722E-2</v>
       </c>
       <c r="M78" s="3">
         <f>M23</f>
@@ -20424,11 +21740,11 @@
       </c>
       <c r="N78" s="3">
         <f>N23</f>
-        <v>1</v>
+        <v>3.4818168153162493E-2</v>
       </c>
       <c r="O78" s="3">
         <f>O23</f>
-        <v>0</v>
+        <v>6.9636336306325208E-2</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.45">
@@ -20466,6 +21782,11 @@
       <c r="O80" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:P2" xr:uid="{9587F2EF-0B7E-4E84-89A1-B52C1FE909CB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:P11">
+      <sortCondition descending="1" ref="P2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
